--- a/Import Data/88x975.xlsx
+++ b/Import Data/88x975.xlsx
@@ -1,22 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\GitHub\dbf-propulsions\Import Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B83788-B30B-48FF-AD60-E6621CB0843E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="84" windowWidth="10500" windowHeight="5856"/>
+    <workbookView xWindow="22320" yWindow="3075" windowWidth="14130" windowHeight="14790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="46">
   <si>
     <t>8.8x9.75</t>
   </si>
@@ -155,33 +174,12 @@
   <si>
     <t>(Lbf)</t>
   </si>
-  <si>
-    <t>0.95-NaN</t>
-  </si>
-  <si>
-    <t>1.19-NaN</t>
-  </si>
-  <si>
-    <t>1.24-NaN</t>
-  </si>
-  <si>
-    <t>1.34-NaN</t>
-  </si>
-  <si>
-    <t>1.16-NaN</t>
-  </si>
-  <si>
-    <t>1.21-NaN</t>
-  </si>
-  <si>
-    <t>1.46-NaN</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +217,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -265,7 +271,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -297,9 +303,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -331,6 +355,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -506,16 +548,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I861"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A581" workbookViewId="0">
+      <selection activeCell="B777" sqref="B777"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -526,7 +568,7 @@
         <v>41998</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -555,12 +597,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -571,7 +613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -594,7 +636,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -617,7 +659,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -625,7 +667,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -642,7 +684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -656,7 +698,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -682,7 +724,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -702,7 +744,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -728,7 +770,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.4</v>
       </c>
@@ -754,7 +796,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.8</v>
       </c>
@@ -780,7 +822,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1.2</v>
       </c>
@@ -806,7 +848,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1.6</v>
       </c>
@@ -832,7 +874,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -858,7 +900,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2.4</v>
       </c>
@@ -884,7 +926,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2.7</v>
       </c>
@@ -910,7 +952,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3.1</v>
       </c>
@@ -936,7 +978,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3.5</v>
       </c>
@@ -962,7 +1004,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3.9</v>
       </c>
@@ -988,7 +1030,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4.3</v>
       </c>
@@ -1014,7 +1056,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4.7</v>
       </c>
@@ -1040,7 +1082,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5.0999999999999996</v>
       </c>
@@ -1066,7 +1108,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5.5</v>
       </c>
@@ -1092,7 +1134,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5.9</v>
       </c>
@@ -1118,7 +1160,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>6.3</v>
       </c>
@@ -1144,7 +1186,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>6.7</v>
       </c>
@@ -1170,7 +1212,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>7.1</v>
       </c>
@@ -1196,7 +1238,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>7.5</v>
       </c>
@@ -1222,7 +1264,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>7.9</v>
       </c>
@@ -1248,7 +1290,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>8.1999999999999993</v>
       </c>
@@ -1274,7 +1316,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>8.6</v>
       </c>
@@ -1300,7 +1342,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>9</v>
       </c>
@@ -1326,7 +1368,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>9.4</v>
       </c>
@@ -1352,7 +1394,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>9.8000000000000007</v>
       </c>
@@ -1378,7 +1420,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>10.199999999999999</v>
       </c>
@@ -1404,7 +1446,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>10.6</v>
       </c>
@@ -1430,7 +1472,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>11</v>
       </c>
@@ -1456,7 +1498,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>11.4</v>
       </c>
@@ -1482,7 +1524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -1496,7 +1538,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -1522,7 +1564,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>40</v>
       </c>
@@ -1542,7 +1584,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0</v>
       </c>
@@ -1568,7 +1610,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0.8</v>
       </c>
@@ -1594,7 +1636,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1.6</v>
       </c>
@@ -1620,7 +1662,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2.4</v>
       </c>
@@ -1646,7 +1688,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>3.1</v>
       </c>
@@ -1672,7 +1714,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3.9</v>
       </c>
@@ -1698,7 +1740,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>4.7</v>
       </c>
@@ -1724,7 +1766,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>5.5</v>
       </c>
@@ -1750,7 +1792,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>6.3</v>
       </c>
@@ -1776,7 +1818,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>7.1</v>
       </c>
@@ -1802,7 +1844,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>7.8</v>
       </c>
@@ -1828,7 +1870,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>8.6</v>
       </c>
@@ -1854,7 +1896,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>9.4</v>
       </c>
@@ -1880,7 +1922,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>10.199999999999999</v>
       </c>
@@ -1906,7 +1948,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>11</v>
       </c>
@@ -1932,7 +1974,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>11.8</v>
       </c>
@@ -1958,7 +2000,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>12.5</v>
       </c>
@@ -1984,7 +2026,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>13.3</v>
       </c>
@@ -2010,7 +2052,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>14.1</v>
       </c>
@@ -2036,7 +2078,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>14.9</v>
       </c>
@@ -2062,7 +2104,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>15.7</v>
       </c>
@@ -2088,7 +2130,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>16.5</v>
       </c>
@@ -2114,7 +2156,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>17.2</v>
       </c>
@@ -2140,7 +2182,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>18</v>
       </c>
@@ -2166,7 +2208,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>18.8</v>
       </c>
@@ -2192,7 +2234,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>19.600000000000001</v>
       </c>
@@ -2218,7 +2260,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>20.399999999999999</v>
       </c>
@@ -2244,7 +2286,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>21.2</v>
       </c>
@@ -2270,7 +2312,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>21.9</v>
       </c>
@@ -2296,7 +2338,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>22.7</v>
       </c>
@@ -2322,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>30</v>
       </c>
@@ -2336,7 +2378,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>26</v>
       </c>
@@ -2362,7 +2404,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>40</v>
       </c>
@@ -2382,7 +2424,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>0</v>
       </c>
@@ -2408,7 +2450,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1.2</v>
       </c>
@@ -2434,7 +2476,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2.2999999999999998</v>
       </c>
@@ -2460,7 +2502,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>3.5</v>
       </c>
@@ -2486,7 +2528,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>4.7</v>
       </c>
@@ -2512,7 +2554,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>5.9</v>
       </c>
@@ -2538,7 +2580,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>7</v>
       </c>
@@ -2564,7 +2606,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>8.1999999999999993</v>
       </c>
@@ -2590,7 +2632,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>9.4</v>
       </c>
@@ -2616,7 +2658,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>10.6</v>
       </c>
@@ -2642,7 +2684,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>11.7</v>
       </c>
@@ -2668,7 +2710,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>12.9</v>
       </c>
@@ -2694,7 +2736,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>14.1</v>
       </c>
@@ -2720,7 +2762,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>15.3</v>
       </c>
@@ -2746,7 +2788,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>16.399999999999999</v>
       </c>
@@ -2772,7 +2814,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>17.600000000000001</v>
       </c>
@@ -2798,7 +2840,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>18.8</v>
       </c>
@@ -2824,7 +2866,7 @@
         <v>0.14899999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>20</v>
       </c>
@@ -2850,7 +2892,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>21.1</v>
       </c>
@@ -2876,7 +2918,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>22.3</v>
       </c>
@@ -2902,7 +2944,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>23.5</v>
       </c>
@@ -2928,7 +2970,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>24.7</v>
       </c>
@@ -2954,7 +2996,7 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>25.8</v>
       </c>
@@ -2980,7 +3022,7 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>27</v>
       </c>
@@ -3006,7 +3048,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>28.2</v>
       </c>
@@ -3032,7 +3074,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>29.4</v>
       </c>
@@ -3058,7 +3100,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>30.5</v>
       </c>
@@ -3084,7 +3126,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>31.7</v>
       </c>
@@ -3110,7 +3152,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>32.9</v>
       </c>
@@ -3136,7 +3178,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>34.1</v>
       </c>
@@ -3162,7 +3204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>30</v>
       </c>
@@ -3176,7 +3218,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>26</v>
       </c>
@@ -3202,7 +3244,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>40</v>
       </c>
@@ -3222,7 +3264,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>0</v>
       </c>
@@ -3248,7 +3290,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1.6</v>
       </c>
@@ -3274,7 +3316,7 @@
         <v>0.27400000000000002</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>3.1</v>
       </c>
@@ -3300,7 +3342,7 @@
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>4.7</v>
       </c>
@@ -3326,7 +3368,7 @@
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>6.3</v>
       </c>
@@ -3352,7 +3394,7 @@
         <v>0.27600000000000002</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>7.8</v>
       </c>
@@ -3378,7 +3420,7 @@
         <v>0.27700000000000002</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>9.4</v>
       </c>
@@ -3404,7 +3446,7 @@
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>11</v>
       </c>
@@ -3430,7 +3472,7 @@
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>12.5</v>
       </c>
@@ -3456,7 +3498,7 @@
         <v>0.27900000000000003</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>14.1</v>
       </c>
@@ -3482,7 +3524,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>15.7</v>
       </c>
@@ -3508,7 +3550,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>17.2</v>
       </c>
@@ -3534,7 +3576,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>18.8</v>
       </c>
@@ -3560,7 +3602,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>20.399999999999999</v>
       </c>
@@ -3586,7 +3628,7 @@
         <v>0.27900000000000003</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>21.9</v>
       </c>
@@ -3612,7 +3654,7 @@
         <v>0.27600000000000002</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>23.5</v>
       </c>
@@ -3638,7 +3680,7 @@
         <v>0.27200000000000002</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>25.1</v>
       </c>
@@ -3664,7 +3706,7 @@
         <v>0.26500000000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>26.6</v>
       </c>
@@ -3690,7 +3732,7 @@
         <v>0.25600000000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>28.2</v>
       </c>
@@ -3716,7 +3758,7 @@
         <v>0.24399999999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>29.8</v>
       </c>
@@ -3742,7 +3784,7 @@
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>31.3</v>
       </c>
@@ -3768,7 +3810,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>32.9</v>
       </c>
@@ -3794,7 +3836,7 @@
         <v>0.185</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>34.5</v>
       </c>
@@ -3820,7 +3862,7 @@
         <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>36</v>
       </c>
@@ -3846,7 +3888,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>37.6</v>
       </c>
@@ -3872,7 +3914,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>39.200000000000003</v>
       </c>
@@ -3898,7 +3940,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>40.700000000000003</v>
       </c>
@@ -3924,7 +3966,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>42.3</v>
       </c>
@@ -3950,7 +3992,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>43.9</v>
       </c>
@@ -3976,7 +4018,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>45.4</v>
       </c>
@@ -4002,7 +4044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>30</v>
       </c>
@@ -4016,7 +4058,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>26</v>
       </c>
@@ -4042,7 +4084,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>40</v>
       </c>
@@ -4062,7 +4104,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>0</v>
       </c>
@@ -4088,7 +4130,7 @@
         <v>0.42699999999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>2</v>
       </c>
@@ -4114,7 +4156,7 @@
         <v>0.42799999999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>3.9</v>
       </c>
@@ -4140,7 +4182,7 @@
         <v>0.42899999999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>5.9</v>
       </c>
@@ -4166,7 +4208,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>7.8</v>
       </c>
@@ -4192,7 +4234,7 @@
         <v>0.43099999999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>9.8000000000000007</v>
       </c>
@@ -4218,7 +4260,7 @@
         <v>0.433</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>11.7</v>
       </c>
@@ -4244,7 +4286,7 @@
         <v>0.434</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>13.7</v>
       </c>
@@ -4270,7 +4312,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>15.7</v>
       </c>
@@ -4296,7 +4338,7 @@
         <v>0.436</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>17.600000000000001</v>
       </c>
@@ -4322,7 +4364,7 @@
         <v>0.437</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>19.600000000000001</v>
       </c>
@@ -4348,7 +4390,7 @@
         <v>0.437</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>21.5</v>
       </c>
@@ -4374,7 +4416,7 @@
         <v>0.438</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>23.5</v>
       </c>
@@ -4400,7 +4442,7 @@
         <v>0.438</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>25.4</v>
       </c>
@@ -4426,7 +4468,7 @@
         <v>0.436</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>27.4</v>
       </c>
@@ -4452,7 +4494,7 @@
         <v>0.432</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>29.4</v>
       </c>
@@ -4478,7 +4520,7 @@
         <v>0.42599999999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>31.3</v>
       </c>
@@ -4504,7 +4546,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>33.299999999999997</v>
       </c>
@@ -4530,7 +4572,7 @@
         <v>0.40200000000000002</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>35.200000000000003</v>
       </c>
@@ -4556,7 +4598,7 @@
         <v>0.38300000000000001</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>37.200000000000003</v>
       </c>
@@ -4582,7 +4624,7 @@
         <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>39.1</v>
       </c>
@@ -4608,7 +4650,7 @@
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>41.1</v>
       </c>
@@ -4634,7 +4676,7 @@
         <v>0.29099999999999998</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>43</v>
       </c>
@@ -4660,7 +4702,7 @@
         <v>0.25600000000000001</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>45</v>
       </c>
@@ -4686,7 +4728,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>47</v>
       </c>
@@ -4712,7 +4754,7 @@
         <v>0.185</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>48.9</v>
       </c>
@@ -4738,7 +4780,7 @@
         <v>0.14899999999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>50.9</v>
       </c>
@@ -4764,7 +4806,7 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>52.8</v>
       </c>
@@ -4790,7 +4832,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>54.8</v>
       </c>
@@ -4816,7 +4858,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>56.7</v>
       </c>
@@ -4842,7 +4884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>30</v>
       </c>
@@ -4856,7 +4898,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>26</v>
       </c>
@@ -4882,7 +4924,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>40</v>
       </c>
@@ -4902,7 +4944,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>0</v>
       </c>
@@ -4928,7 +4970,7 @@
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>2.2999999999999998</v>
       </c>
@@ -4954,7 +4996,7 @@
         <v>0.61699999999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>4.7</v>
       </c>
@@ -4980,7 +5022,7 @@
         <v>0.61799999999999999</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>7</v>
       </c>
@@ -5006,7 +5048,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>9.4</v>
       </c>
@@ -5032,7 +5074,7 @@
         <v>0.621</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>11.7</v>
       </c>
@@ -5058,7 +5100,7 @@
         <v>0.623</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>14.1</v>
       </c>
@@ -5084,7 +5126,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>16.399999999999999</v>
       </c>
@@ -5110,7 +5152,7 @@
         <v>0.627</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>18.8</v>
       </c>
@@ -5136,7 +5178,7 @@
         <v>0.628</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>21.1</v>
       </c>
@@ -5162,7 +5204,7 @@
         <v>0.629</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>23.5</v>
       </c>
@@ -5188,7 +5230,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>25.8</v>
       </c>
@@ -5214,7 +5256,7 @@
         <v>0.63100000000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>28.2</v>
       </c>
@@ -5240,7 +5282,7 @@
         <v>0.63100000000000001</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>30.5</v>
       </c>
@@ -5266,7 +5308,7 @@
         <v>0.628</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>32.9</v>
       </c>
@@ -5292,7 +5334,7 @@
         <v>0.623</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>35.200000000000003</v>
       </c>
@@ -5318,7 +5360,7 @@
         <v>0.61399999999999999</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>37.6</v>
       </c>
@@ -5344,7 +5386,7 @@
         <v>0.59899999999999998</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>39.9</v>
       </c>
@@ -5370,7 +5412,7 @@
         <v>0.57899999999999996</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>42.3</v>
       </c>
@@ -5396,7 +5438,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>44.6</v>
       </c>
@@ -5422,7 +5464,7 @@
         <v>0.51700000000000002</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>47</v>
       </c>
@@ -5448,7 +5490,7 @@
         <v>0.46899999999999997</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>49.3</v>
       </c>
@@ -5474,7 +5516,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>51.7</v>
       </c>
@@ -5500,7 +5542,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>54</v>
       </c>
@@ -5526,7 +5568,7 @@
         <v>0.31900000000000001</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>56.4</v>
       </c>
@@ -5552,7 +5594,7 @@
         <v>0.26800000000000002</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>58.7</v>
       </c>
@@ -5578,7 +5620,7 @@
         <v>0.215</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>61.1</v>
       </c>
@@ -5604,7 +5646,7 @@
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>63.4</v>
       </c>
@@ -5630,7 +5672,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>65.8</v>
       </c>
@@ -5656,7 +5698,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>68.099999999999994</v>
       </c>
@@ -5682,7 +5724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>30</v>
       </c>
@@ -5696,7 +5738,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>26</v>
       </c>
@@ -5722,7 +5764,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>40</v>
       </c>
@@ -5742,7 +5784,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>0</v>
       </c>
@@ -5768,7 +5810,7 @@
         <v>0.83699999999999997</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>2.7</v>
       </c>
@@ -5794,7 +5836,7 @@
         <v>0.83899999999999997</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>5.5</v>
       </c>
@@ -5820,7 +5862,7 @@
         <v>0.84099999999999997</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>8.1999999999999993</v>
       </c>
@@ -5846,7 +5888,7 @@
         <v>0.84299999999999997</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>11</v>
       </c>
@@ -5872,7 +5914,7 @@
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>13.7</v>
       </c>
@@ -5898,7 +5940,7 @@
         <v>0.84799999999999998</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>16.399999999999999</v>
       </c>
@@ -5924,7 +5966,7 @@
         <v>0.85099999999999998</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>19.2</v>
       </c>
@@ -5950,7 +5992,7 @@
         <v>0.85299999999999998</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>21.9</v>
       </c>
@@ -5976,7 +6018,7 @@
         <v>0.85499999999999998</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>24.7</v>
       </c>
@@ -6002,7 +6044,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>27.4</v>
       </c>
@@ -6028,7 +6070,7 @@
         <v>0.85799999999999998</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>30.2</v>
       </c>
@@ -6054,7 +6096,7 @@
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>32.9</v>
       </c>
@@ -6080,7 +6122,7 @@
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>35.6</v>
       </c>
@@ -6106,7 +6148,7 @@
         <v>0.85599999999999998</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>38.4</v>
       </c>
@@ -6132,7 +6174,7 @@
         <v>0.84899999999999998</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>41.1</v>
       </c>
@@ -6158,7 +6200,7 @@
         <v>0.83599999999999997</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>43.9</v>
       </c>
@@ -6184,7 +6226,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>46.6</v>
       </c>
@@ -6210,7 +6252,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>49.3</v>
       </c>
@@ -6236,7 +6278,7 @@
         <v>0.755</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>52.1</v>
       </c>
@@ -6262,7 +6304,7 @@
         <v>0.70599999999999996</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>54.8</v>
       </c>
@@ -6288,7 +6330,7 @@
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>57.6</v>
       </c>
@@ -6314,7 +6356,7 @@
         <v>0.57399999999999995</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>60.3</v>
       </c>
@@ -6340,7 +6382,7 @@
         <v>0.50600000000000001</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>63</v>
       </c>
@@ -6366,7 +6408,7 @@
         <v>0.436</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>65.8</v>
       </c>
@@ -6392,7 +6434,7 @@
         <v>0.36599999999999999</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>68.5</v>
       </c>
@@ -6418,7 +6460,7 @@
         <v>0.29399999999999998</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>71.3</v>
       </c>
@@ -6444,7 +6486,7 @@
         <v>0.222</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>74</v>
       </c>
@@ -6470,7 +6512,7 @@
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>76.8</v>
       </c>
@@ -6496,7 +6538,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>79.5</v>
       </c>
@@ -6522,7 +6564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>30</v>
       </c>
@@ -6536,7 +6578,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>26</v>
       </c>
@@ -6562,7 +6604,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>40</v>
       </c>
@@ -6582,7 +6624,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>0</v>
       </c>
@@ -6608,7 +6650,7 @@
         <v>1.0940000000000001</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>3.1</v>
       </c>
@@ -6634,7 +6676,7 @@
         <v>1.0960000000000001</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>6.3</v>
       </c>
@@ -6660,7 +6702,7 @@
         <v>1.099</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>9.4</v>
       </c>
@@ -6686,7 +6728,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>12.5</v>
       </c>
@@ -6712,7 +6754,7 @@
         <v>1.105</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>15.7</v>
       </c>
@@ -6738,7 +6780,7 @@
         <v>1.1080000000000001</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>18.8</v>
       </c>
@@ -6764,7 +6806,7 @@
         <v>1.1120000000000001</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>21.9</v>
       </c>
@@ -6790,7 +6832,7 @@
         <v>1.115</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>25.1</v>
       </c>
@@ -6816,7 +6858,7 @@
         <v>1.1180000000000001</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>28.2</v>
       </c>
@@ -6842,7 +6884,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>31.3</v>
       </c>
@@ -6868,7 +6910,7 @@
         <v>1.1220000000000001</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>34.5</v>
       </c>
@@ -6894,7 +6936,7 @@
         <v>1.123</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>37.6</v>
       </c>
@@ -6920,7 +6962,7 @@
         <v>1.123</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>40.700000000000003</v>
       </c>
@@ -6946,7 +6988,7 @@
         <v>1.119</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>43.9</v>
       </c>
@@ -6972,7 +7014,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>47</v>
       </c>
@@ -6998,7 +7040,7 @@
         <v>1.0940000000000001</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>50.2</v>
       </c>
@@ -7024,7 +7066,7 @@
         <v>1.069</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>53.3</v>
       </c>
@@ -7050,7 +7092,7 @@
         <v>1.0349999999999999</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>56.4</v>
       </c>
@@ -7076,7 +7118,7 @@
         <v>0.98899999999999999</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>59.6</v>
       </c>
@@ -7102,7 +7144,7 @@
         <v>0.92600000000000005</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>62.7</v>
       </c>
@@ -7128,7 +7170,7 @@
         <v>0.84099999999999997</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>65.8</v>
       </c>
@@ -7154,7 +7196,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>69</v>
       </c>
@@ -7180,7 +7222,7 @@
         <v>0.66300000000000003</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>72.099999999999994</v>
       </c>
@@ -7206,7 +7248,7 @@
         <v>0.57199999999999995</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>75.2</v>
       </c>
@@ -7232,7 +7274,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>78.400000000000006</v>
       </c>
@@ -7258,7 +7300,7 @@
         <v>0.38600000000000001</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>81.5</v>
       </c>
@@ -7284,7 +7326,7 @@
         <v>0.29099999999999998</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>84.6</v>
       </c>
@@ -7310,7 +7352,7 @@
         <v>0.193</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>87.8</v>
       </c>
@@ -7336,7 +7378,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>90.9</v>
       </c>
@@ -7362,7 +7404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>30</v>
       </c>
@@ -7376,7 +7418,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>26</v>
       </c>
@@ -7402,7 +7444,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>40</v>
       </c>
@@ -7422,7 +7464,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>0</v>
       </c>
@@ -7448,7 +7490,7 @@
         <v>1.385</v>
       </c>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>3.5</v>
       </c>
@@ -7474,7 +7516,7 @@
         <v>1.3879999999999999</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>7</v>
       </c>
@@ -7500,7 +7542,7 @@
         <v>1.391</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>10.6</v>
       </c>
@@ -7526,7 +7568,7 @@
         <v>1.395</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>14.1</v>
       </c>
@@ -7552,7 +7594,7 @@
         <v>1.399</v>
       </c>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>17.600000000000001</v>
       </c>
@@ -7578,7 +7620,7 @@
         <v>1.403</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>21.1</v>
       </c>
@@ -7604,7 +7646,7 @@
         <v>1.407</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>24.7</v>
       </c>
@@ -7630,7 +7672,7 @@
         <v>1.411</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>28.2</v>
       </c>
@@ -7656,7 +7698,7 @@
         <v>1.415</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>31.7</v>
       </c>
@@ -7682,7 +7724,7 @@
         <v>1.4179999999999999</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>35.200000000000003</v>
       </c>
@@ -7708,7 +7750,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>38.799999999999997</v>
       </c>
@@ -7734,7 +7776,7 @@
         <v>1.4219999999999999</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>42.3</v>
       </c>
@@ -7760,7 +7802,7 @@
         <v>1.4219999999999999</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>45.8</v>
       </c>
@@ -7786,7 +7828,7 @@
         <v>1.4179999999999999</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>49.3</v>
       </c>
@@ -7812,7 +7854,7 @@
         <v>1.407</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>52.9</v>
       </c>
@@ -7838,7 +7880,7 @@
         <v>1.387</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>56.4</v>
       </c>
@@ -7864,7 +7906,7 @@
         <v>1.357</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>59.9</v>
       </c>
@@ -7890,7 +7932,7 @@
         <v>1.3140000000000001</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>63.4</v>
       </c>
@@ -7916,7 +7958,7 @@
         <v>1.2569999999999999</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>67</v>
       </c>
@@ -7942,7 +7984,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>70.5</v>
       </c>
@@ -7968,7 +8010,7 @@
         <v>1.0720000000000001</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>74</v>
       </c>
@@ -7994,7 +8036,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>77.5</v>
       </c>
@@ -8020,7 +8062,7 @@
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>81.099999999999994</v>
       </c>
@@ -8046,7 +8088,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>84.6</v>
       </c>
@@ -8072,7 +8114,7 @@
         <v>0.61199999999999999</v>
       </c>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>88.1</v>
       </c>
@@ -8098,7 +8140,7 @@
         <v>0.49299999999999999</v>
       </c>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>91.6</v>
       </c>
@@ -8124,7 +8166,7 @@
         <v>0.371</v>
       </c>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>95.2</v>
       </c>
@@ -8150,7 +8192,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>98.7</v>
       </c>
@@ -8176,7 +8218,7 @@
         <v>0.122</v>
       </c>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>102.2</v>
       </c>
@@ -8202,7 +8244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>30</v>
       </c>
@@ -8216,7 +8258,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>26</v>
       </c>
@@ -8242,7 +8284,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>40</v>
       </c>
@@ -8262,7 +8304,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>0</v>
       </c>
@@ -8288,7 +8330,7 @@
         <v>1.7070000000000001</v>
       </c>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>3.9</v>
       </c>
@@ -8314,7 +8356,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="353" spans="1:8">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>7.8</v>
       </c>
@@ -8340,7 +8382,7 @@
         <v>1.714</v>
       </c>
     </row>
-    <row r="354" spans="1:8">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>11.8</v>
       </c>
@@ -8366,7 +8408,7 @@
         <v>1.7190000000000001</v>
       </c>
     </row>
-    <row r="355" spans="1:8">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>15.7</v>
       </c>
@@ -8392,7 +8434,7 @@
         <v>1.7230000000000001</v>
       </c>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>19.600000000000001</v>
       </c>
@@ -8418,7 +8460,7 @@
         <v>1.728</v>
       </c>
     </row>
-    <row r="357" spans="1:8">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>23.5</v>
       </c>
@@ -8444,7 +8486,7 @@
         <v>1.734</v>
       </c>
     </row>
-    <row r="358" spans="1:8">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>27.4</v>
       </c>
@@ -8470,7 +8512,7 @@
         <v>1.7390000000000001</v>
       </c>
     </row>
-    <row r="359" spans="1:8">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>31.3</v>
       </c>
@@ -8496,7 +8538,7 @@
         <v>1.744</v>
       </c>
     </row>
-    <row r="360" spans="1:8">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>35.299999999999997</v>
       </c>
@@ -8522,7 +8564,7 @@
         <v>1.748</v>
       </c>
     </row>
-    <row r="361" spans="1:8">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>39.200000000000003</v>
       </c>
@@ -8548,7 +8590,7 @@
         <v>1.7509999999999999</v>
       </c>
     </row>
-    <row r="362" spans="1:8">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>43.1</v>
       </c>
@@ -8574,7 +8616,7 @@
         <v>1.7529999999999999</v>
       </c>
     </row>
-    <row r="363" spans="1:8">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>47</v>
       </c>
@@ -8600,7 +8642,7 @@
         <v>1.7529999999999999</v>
       </c>
     </row>
-    <row r="364" spans="1:8">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>50.9</v>
       </c>
@@ -8626,7 +8668,7 @@
         <v>1.7490000000000001</v>
       </c>
     </row>
-    <row r="365" spans="1:8">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>54.9</v>
       </c>
@@ -8652,7 +8694,7 @@
         <v>1.7370000000000001</v>
       </c>
     </row>
-    <row r="366" spans="1:8">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>58.8</v>
       </c>
@@ -8678,7 +8720,7 @@
         <v>1.7130000000000001</v>
       </c>
     </row>
-    <row r="367" spans="1:8">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>62.7</v>
       </c>
@@ -8704,7 +8746,7 @@
         <v>1.677</v>
       </c>
     </row>
-    <row r="368" spans="1:8">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>66.599999999999994</v>
       </c>
@@ -8730,7 +8772,7 @@
         <v>1.6259999999999999</v>
       </c>
     </row>
-    <row r="369" spans="1:8">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>70.5</v>
       </c>
@@ -8756,7 +8798,7 @@
         <v>1.5569999999999999</v>
       </c>
     </row>
-    <row r="370" spans="1:8">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>74.400000000000006</v>
       </c>
@@ -8782,7 +8824,7 @@
         <v>1.462</v>
       </c>
     </row>
-    <row r="371" spans="1:8">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>78.400000000000006</v>
       </c>
@@ -8808,7 +8850,7 @@
         <v>1.331</v>
       </c>
     </row>
-    <row r="372" spans="1:8">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>82.3</v>
       </c>
@@ -8834,7 +8876,7 @@
         <v>1.1910000000000001</v>
       </c>
     </row>
-    <row r="373" spans="1:8">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>86.2</v>
       </c>
@@ -8860,7 +8902,7 @@
         <v>1.0489999999999999</v>
       </c>
     </row>
-    <row r="374" spans="1:8">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>90.1</v>
       </c>
@@ -8886,7 +8928,7 @@
         <v>0.90400000000000003</v>
       </c>
     </row>
-    <row r="375" spans="1:8">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>94</v>
       </c>
@@ -8912,7 +8954,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="376" spans="1:8">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>97.9</v>
       </c>
@@ -8938,7 +8980,7 @@
         <v>0.60899999999999999</v>
       </c>
     </row>
-    <row r="377" spans="1:8">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>101.9</v>
       </c>
@@ -8964,7 +9006,7 @@
         <v>0.45600000000000002</v>
       </c>
     </row>
-    <row r="378" spans="1:8">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>105.8</v>
       </c>
@@ -8990,7 +9032,7 @@
         <v>0.30199999999999999</v>
       </c>
     </row>
-    <row r="379" spans="1:8">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>109.7</v>
       </c>
@@ -9016,7 +9058,7 @@
         <v>0.14799999999999999</v>
       </c>
     </row>
-    <row r="380" spans="1:8">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>113.6</v>
       </c>
@@ -9042,7 +9084,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="384" spans="1:8">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>30</v>
       </c>
@@ -9056,7 +9098,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="386" spans="1:8">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>26</v>
       </c>
@@ -9082,7 +9124,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="387" spans="1:8">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>40</v>
       </c>
@@ -9102,7 +9144,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="388" spans="1:8">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>0</v>
       </c>
@@ -9128,7 +9170,7 @@
         <v>2.0609999999999999</v>
       </c>
     </row>
-    <row r="389" spans="1:8">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>4.3</v>
       </c>
@@ -9154,7 +9196,7 @@
         <v>2.0649999999999999</v>
       </c>
     </row>
-    <row r="390" spans="1:8">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>8.6</v>
       </c>
@@ -9180,7 +9222,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="391" spans="1:8">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>12.9</v>
       </c>
@@ -9206,7 +9248,7 @@
         <v>2.0750000000000002</v>
       </c>
     </row>
-    <row r="392" spans="1:8">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>17.2</v>
       </c>
@@ -9232,7 +9274,7 @@
         <v>2.081</v>
       </c>
     </row>
-    <row r="393" spans="1:8">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>21.6</v>
       </c>
@@ -9258,7 +9300,7 @@
         <v>2.0870000000000002</v>
       </c>
     </row>
-    <row r="394" spans="1:8">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>25.9</v>
       </c>
@@ -9284,7 +9326,7 @@
         <v>2.093</v>
       </c>
     </row>
-    <row r="395" spans="1:8">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>30.2</v>
       </c>
@@ -9310,7 +9352,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="396" spans="1:8">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>34.5</v>
       </c>
@@ -9336,7 +9378,7 @@
         <v>2.1059999999999999</v>
       </c>
     </row>
-    <row r="397" spans="1:8">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>38.799999999999997</v>
       </c>
@@ -9362,7 +9404,7 @@
         <v>2.1110000000000002</v>
       </c>
     </row>
-    <row r="398" spans="1:8">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>43.1</v>
       </c>
@@ -9388,7 +9430,7 @@
         <v>2.1150000000000002</v>
       </c>
     </row>
-    <row r="399" spans="1:8">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>47.4</v>
       </c>
@@ -9414,7 +9456,7 @@
         <v>2.1179999999999999</v>
       </c>
     </row>
-    <row r="400" spans="1:8">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>51.7</v>
       </c>
@@ -9440,7 +9482,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="401" spans="1:8">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>56</v>
       </c>
@@ -9466,7 +9508,7 @@
         <v>2.1160000000000001</v>
       </c>
     </row>
-    <row r="402" spans="1:8">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>60.3</v>
       </c>
@@ -9492,7 +9534,7 @@
         <v>2.1019999999999999</v>
       </c>
     </row>
-    <row r="403" spans="1:8">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>64.7</v>
       </c>
@@ -9518,7 +9560,7 @@
         <v>2.0750000000000002</v>
       </c>
     </row>
-    <row r="404" spans="1:8">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>69</v>
       </c>
@@ -9544,7 +9586,7 @@
         <v>2.0329999999999999</v>
       </c>
     </row>
-    <row r="405" spans="1:8">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>73.3</v>
       </c>
@@ -9570,7 +9612,7 @@
         <v>1.974</v>
       </c>
     </row>
-    <row r="406" spans="1:8">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>77.599999999999994</v>
       </c>
@@ -9596,7 +9638,7 @@
         <v>1.8919999999999999</v>
       </c>
     </row>
-    <row r="407" spans="1:8">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>81.900000000000006</v>
       </c>
@@ -9622,7 +9664,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="408" spans="1:8">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>86.2</v>
       </c>
@@ -9648,7 +9690,7 @@
         <v>1.6220000000000001</v>
       </c>
     </row>
-    <row r="409" spans="1:8">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>90.5</v>
       </c>
@@ -9674,7 +9716,7 @@
         <v>1.4510000000000001</v>
       </c>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>94.8</v>
       </c>
@@ -9700,7 +9742,7 @@
         <v>1.278</v>
       </c>
     </row>
-    <row r="411" spans="1:8">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>99.1</v>
       </c>
@@ -9726,7 +9768,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="412" spans="1:8">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>103.4</v>
       </c>
@@ -9752,7 +9794,7 @@
         <v>0.92600000000000005</v>
       </c>
     </row>
-    <row r="413" spans="1:8">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>107.8</v>
       </c>
@@ -9778,7 +9820,7 @@
         <v>0.745</v>
       </c>
     </row>
-    <row r="414" spans="1:8">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>112.1</v>
       </c>
@@ -9804,7 +9846,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="415" spans="1:8">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>116.4</v>
       </c>
@@ -9830,7 +9872,7 @@
         <v>0.372</v>
       </c>
     </row>
-    <row r="416" spans="1:8">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>120.7</v>
       </c>
@@ -9856,7 +9898,7 @@
         <v>0.185</v>
       </c>
     </row>
-    <row r="417" spans="1:8">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>125</v>
       </c>
@@ -9882,7 +9924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:8">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>30</v>
       </c>
@@ -9896,7 +9938,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="423" spans="1:8">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>26</v>
       </c>
@@ -9922,7 +9964,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="424" spans="1:8">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>40</v>
       </c>
@@ -9942,7 +9984,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="425" spans="1:8">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>0</v>
       </c>
@@ -9968,7 +10010,7 @@
         <v>2.448</v>
       </c>
     </row>
-    <row r="426" spans="1:8">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>4.7</v>
       </c>
@@ -9994,7 +10036,7 @@
         <v>2.4529999999999998</v>
       </c>
     </row>
-    <row r="427" spans="1:8">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>9.4</v>
       </c>
@@ -10020,7 +10062,7 @@
         <v>2.4590000000000001</v>
       </c>
     </row>
-    <row r="428" spans="1:8">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>14.1</v>
       </c>
@@ -10046,7 +10088,7 @@
         <v>2.4649999999999999</v>
       </c>
     </row>
-    <row r="429" spans="1:8">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>18.8</v>
       </c>
@@ -10072,7 +10114,7 @@
         <v>2.4710000000000001</v>
       </c>
     </row>
-    <row r="430" spans="1:8">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>23.5</v>
       </c>
@@ -10098,7 +10140,7 @@
         <v>2.4780000000000002</v>
       </c>
     </row>
-    <row r="431" spans="1:8">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>28.2</v>
       </c>
@@ -10124,7 +10166,7 @@
         <v>2.4849999999999999</v>
       </c>
     </row>
-    <row r="432" spans="1:8">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>32.9</v>
       </c>
@@ -10150,7 +10192,7 @@
         <v>2.4929999999999999</v>
       </c>
     </row>
-    <row r="433" spans="1:8">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>37.6</v>
       </c>
@@ -10176,7 +10218,7 @@
         <v>2.5009999999999999</v>
       </c>
     </row>
-    <row r="434" spans="1:8">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>42.3</v>
       </c>
@@ -10202,7 +10244,7 @@
         <v>2.508</v>
       </c>
     </row>
-    <row r="435" spans="1:8">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>47</v>
       </c>
@@ -10228,7 +10270,7 @@
         <v>2.5139999999999998</v>
       </c>
     </row>
-    <row r="436" spans="1:8">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>51.7</v>
       </c>
@@ -10254,7 +10296,7 @@
         <v>2.5179999999999998</v>
       </c>
     </row>
-    <row r="437" spans="1:8">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>56.4</v>
       </c>
@@ -10280,7 +10322,7 @@
         <v>2.5209999999999999</v>
       </c>
     </row>
-    <row r="438" spans="1:8">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>61.1</v>
       </c>
@@ -10306,7 +10348,7 @@
         <v>2.5169999999999999</v>
       </c>
     </row>
-    <row r="439" spans="1:8">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>65.8</v>
       </c>
@@ -10332,7 +10374,7 @@
         <v>2.5030000000000001</v>
       </c>
     </row>
-    <row r="440" spans="1:8">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>70.5</v>
       </c>
@@ -10358,7 +10400,7 @@
         <v>2.4729999999999999</v>
       </c>
     </row>
-    <row r="441" spans="1:8">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>75.2</v>
       </c>
@@ -10384,7 +10426,7 @@
         <v>2.4260000000000002</v>
       </c>
     </row>
-    <row r="442" spans="1:8">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>79.900000000000006</v>
       </c>
@@ -10410,7 +10452,7 @@
         <v>2.3580000000000001</v>
       </c>
     </row>
-    <row r="443" spans="1:8">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>84.6</v>
       </c>
@@ -10436,7 +10478,7 @@
         <v>2.2629999999999999</v>
       </c>
     </row>
-    <row r="444" spans="1:8">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>89.3</v>
       </c>
@@ -10462,7 +10504,7 @@
         <v>2.133</v>
       </c>
     </row>
-    <row r="445" spans="1:8">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>94</v>
       </c>
@@ -10488,7 +10530,7 @@
         <v>1.948</v>
       </c>
     </row>
-    <row r="446" spans="1:8">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>98.7</v>
       </c>
@@ -10514,7 +10556,7 @@
         <v>1.744</v>
       </c>
     </row>
-    <row r="447" spans="1:8">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>103.4</v>
       </c>
@@ -10540,7 +10582,7 @@
         <v>1.5369999999999999</v>
       </c>
     </row>
-    <row r="448" spans="1:8">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>108.1</v>
       </c>
@@ -10566,7 +10608,7 @@
         <v>1.327</v>
       </c>
     </row>
-    <row r="449" spans="1:8">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>112.8</v>
       </c>
@@ -10592,7 +10634,7 @@
         <v>1.1140000000000001</v>
       </c>
     </row>
-    <row r="450" spans="1:8">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>117.5</v>
       </c>
@@ -10618,7 +10660,7 @@
         <v>0.89700000000000002</v>
       </c>
     </row>
-    <row r="451" spans="1:8">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>122.2</v>
       </c>
@@ -10644,7 +10686,7 @@
         <v>0.67500000000000004</v>
       </c>
     </row>
-    <row r="452" spans="1:8">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>126.9</v>
       </c>
@@ -10670,7 +10712,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="453" spans="1:8">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>131.6</v>
       </c>
@@ -10696,7 +10738,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="454" spans="1:8">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>136.30000000000001</v>
       </c>
@@ -10722,7 +10764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:8">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>30</v>
       </c>
@@ -10736,7 +10778,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="460" spans="1:8">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>26</v>
       </c>
@@ -10762,7 +10804,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="461" spans="1:8">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>40</v>
       </c>
@@ -10782,7 +10824,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="462" spans="1:8">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>0</v>
       </c>
@@ -10808,7 +10850,7 @@
         <v>2.8690000000000002</v>
       </c>
     </row>
-    <row r="463" spans="1:8">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>5.0999999999999996</v>
       </c>
@@ -10834,7 +10876,7 @@
         <v>2.8740000000000001</v>
       </c>
     </row>
-    <row r="464" spans="1:8">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>10.199999999999999</v>
       </c>
@@ -10860,7 +10902,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="465" spans="1:8">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>15.3</v>
       </c>
@@ -10886,7 +10928,7 @@
         <v>2.887</v>
       </c>
     </row>
-    <row r="466" spans="1:8">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>20.399999999999999</v>
       </c>
@@ -10912,7 +10954,7 @@
         <v>2.895</v>
       </c>
     </row>
-    <row r="467" spans="1:8">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>25.5</v>
       </c>
@@ -10938,7 +10980,7 @@
         <v>2.903</v>
       </c>
     </row>
-    <row r="468" spans="1:8">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>30.6</v>
       </c>
@@ -10964,7 +11006,7 @@
         <v>2.9119999999999999</v>
       </c>
     </row>
-    <row r="469" spans="1:8">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>35.700000000000003</v>
       </c>
@@ -10990,7 +11032,7 @@
         <v>2.9209999999999998</v>
       </c>
     </row>
-    <row r="470" spans="1:8">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>40.799999999999997</v>
       </c>
@@ -11016,7 +11058,7 @@
         <v>2.931</v>
       </c>
     </row>
-    <row r="471" spans="1:8">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>45.9</v>
       </c>
@@ -11042,7 +11084,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="472" spans="1:8">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>51</v>
       </c>
@@ -11068,7 +11110,7 @@
         <v>2.9470000000000001</v>
       </c>
     </row>
-    <row r="473" spans="1:8">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>56.1</v>
       </c>
@@ -11094,7 +11136,7 @@
         <v>2.9529999999999998</v>
       </c>
     </row>
-    <row r="474" spans="1:8">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>61.2</v>
       </c>
@@ -11120,7 +11162,7 @@
         <v>2.9569999999999999</v>
       </c>
     </row>
-    <row r="475" spans="1:8">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>66.3</v>
       </c>
@@ -11146,7 +11188,7 @@
         <v>2.9540000000000002</v>
       </c>
     </row>
-    <row r="476" spans="1:8">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>71.400000000000006</v>
       </c>
@@ -11172,7 +11214,7 @@
         <v>2.9380000000000002</v>
       </c>
     </row>
-    <row r="477" spans="1:8">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>76.5</v>
       </c>
@@ -11198,7 +11240,7 @@
         <v>2.9060000000000001</v>
       </c>
     </row>
-    <row r="478" spans="1:8">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>81.599999999999994</v>
       </c>
@@ -11224,7 +11266,7 @@
         <v>2.8530000000000002</v>
       </c>
     </row>
-    <row r="479" spans="1:8">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>86.7</v>
       </c>
@@ -11250,7 +11292,7 @@
         <v>2.7749999999999999</v>
       </c>
     </row>
-    <row r="480" spans="1:8">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>91.8</v>
       </c>
@@ -11276,7 +11318,7 @@
         <v>2.6659999999999999</v>
       </c>
     </row>
-    <row r="481" spans="1:8">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>96.9</v>
       </c>
@@ -11302,7 +11344,7 @@
         <v>2.516</v>
       </c>
     </row>
-    <row r="482" spans="1:8">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>102</v>
       </c>
@@ -11328,7 +11370,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="483" spans="1:8">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>107.1</v>
       </c>
@@ -11354,7 +11396,7 @@
         <v>2.0579999999999998</v>
       </c>
     </row>
-    <row r="484" spans="1:8">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>112.2</v>
       </c>
@@ -11380,7 +11422,7 @@
         <v>1.8129999999999999</v>
       </c>
     </row>
-    <row r="485" spans="1:8">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>117.3</v>
       </c>
@@ -11406,7 +11448,7 @@
         <v>1.5629999999999999</v>
       </c>
     </row>
-    <row r="486" spans="1:8">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>122.4</v>
       </c>
@@ -11432,7 +11474,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="487" spans="1:8">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>127.6</v>
       </c>
@@ -11458,7 +11500,7 @@
         <v>1.0509999999999999</v>
       </c>
     </row>
-    <row r="488" spans="1:8">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>132.69999999999999</v>
       </c>
@@ -11484,7 +11526,7 @@
         <v>0.78700000000000003</v>
       </c>
     </row>
-    <row r="489" spans="1:8">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>137.80000000000001</v>
       </c>
@@ -11510,7 +11552,7 @@
         <v>0.52200000000000002</v>
       </c>
     </row>
-    <row r="490" spans="1:8">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>142.9</v>
       </c>
@@ -11536,7 +11578,7 @@
         <v>0.26400000000000001</v>
       </c>
     </row>
-    <row r="491" spans="1:8">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>148</v>
       </c>
@@ -11562,7 +11604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:8">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>30</v>
       </c>
@@ -11576,7 +11618,7 @@
         <v>13999</v>
       </c>
     </row>
-    <row r="497" spans="1:8">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>26</v>
       </c>
@@ -11602,7 +11644,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="498" spans="1:8">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>40</v>
       </c>
@@ -11622,7 +11664,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="499" spans="1:8">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>0</v>
       </c>
@@ -11648,7 +11690,7 @@
         <v>3.3220000000000001</v>
       </c>
     </row>
-    <row r="500" spans="1:8">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>5.5</v>
       </c>
@@ -11674,7 +11716,7 @@
         <v>3.3279999999999998</v>
       </c>
     </row>
-    <row r="501" spans="1:8">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>11</v>
       </c>
@@ -11700,7 +11742,7 @@
         <v>3.335</v>
       </c>
     </row>
-    <row r="502" spans="1:8">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>16.5</v>
       </c>
@@ -11726,7 +11768,7 @@
         <v>3.343</v>
       </c>
     </row>
-    <row r="503" spans="1:8">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>22</v>
       </c>
@@ -11752,7 +11794,7 @@
         <v>3.351</v>
       </c>
     </row>
-    <row r="504" spans="1:8">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>27.4</v>
       </c>
@@ -11778,7 +11820,7 @@
         <v>3.3610000000000002</v>
       </c>
     </row>
-    <row r="505" spans="1:8">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>32.9</v>
       </c>
@@ -11804,7 +11846,7 @@
         <v>3.371</v>
       </c>
     </row>
-    <row r="506" spans="1:8">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>38.4</v>
       </c>
@@ -11830,7 +11872,7 @@
         <v>3.3820000000000001</v>
       </c>
     </row>
-    <row r="507" spans="1:8">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>43.9</v>
       </c>
@@ -11856,7 +11898,7 @@
         <v>3.3929999999999998</v>
       </c>
     </row>
-    <row r="508" spans="1:8">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>49.4</v>
       </c>
@@ -11882,7 +11924,7 @@
         <v>3.4039999999999999</v>
       </c>
     </row>
-    <row r="509" spans="1:8">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>54.9</v>
       </c>
@@ -11908,7 +11950,7 @@
         <v>3.4140000000000001</v>
       </c>
     </row>
-    <row r="510" spans="1:8">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>60.4</v>
       </c>
@@ -11934,7 +11976,7 @@
         <v>3.423</v>
       </c>
     </row>
-    <row r="511" spans="1:8">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>65.900000000000006</v>
       </c>
@@ -11960,7 +12002,7 @@
         <v>3.4289999999999998</v>
       </c>
     </row>
-    <row r="512" spans="1:8">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>71.400000000000006</v>
       </c>
@@ -11986,7 +12028,7 @@
         <v>3.427</v>
       </c>
     </row>
-    <row r="513" spans="1:8">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>76.900000000000006</v>
       </c>
@@ -12012,7 +12054,7 @@
         <v>3.411</v>
       </c>
     </row>
-    <row r="514" spans="1:8">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>82.3</v>
       </c>
@@ -12038,7 +12080,7 @@
         <v>3.3759999999999999</v>
       </c>
     </row>
-    <row r="515" spans="1:8">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>87.8</v>
       </c>
@@ -12064,7 +12106,7 @@
         <v>3.319</v>
       </c>
     </row>
-    <row r="516" spans="1:8">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>93.3</v>
       </c>
@@ -12090,7 +12132,7 @@
         <v>3.2349999999999999</v>
       </c>
     </row>
-    <row r="517" spans="1:8">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>98.8</v>
       </c>
@@ -12116,7 +12158,7 @@
         <v>3.1139999999999999</v>
       </c>
     </row>
-    <row r="518" spans="1:8">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>104.3</v>
       </c>
@@ -12142,7 +12184,7 @@
         <v>2.9470000000000001</v>
       </c>
     </row>
-    <row r="519" spans="1:8">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>109.8</v>
       </c>
@@ -12168,7 +12210,7 @@
         <v>2.7040000000000002</v>
       </c>
     </row>
-    <row r="520" spans="1:8">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>115.3</v>
       </c>
@@ -12194,7 +12236,7 @@
         <v>2.4209999999999998</v>
       </c>
     </row>
-    <row r="521" spans="1:8">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>120.8</v>
       </c>
@@ -12220,7 +12262,7 @@
         <v>2.133</v>
       </c>
     </row>
-    <row r="522" spans="1:8">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>126.3</v>
       </c>
@@ -12246,7 +12288,7 @@
         <v>1.8460000000000001</v>
       </c>
     </row>
-    <row r="523" spans="1:8">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>131.80000000000001</v>
       </c>
@@ -12272,7 +12314,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="524" spans="1:8">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>137.19999999999999</v>
       </c>
@@ -12298,7 +12340,7 @@
         <v>1.2490000000000001</v>
       </c>
     </row>
-    <row r="525" spans="1:8">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>142.69999999999999</v>
       </c>
@@ -12324,7 +12366,7 @@
         <v>0.94299999999999995</v>
       </c>
     </row>
-    <row r="526" spans="1:8">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>148.19999999999999</v>
       </c>
@@ -12350,7 +12392,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="527" spans="1:8">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>153.69999999999999</v>
       </c>
@@ -12376,7 +12418,7 @@
         <v>0.308</v>
       </c>
     </row>
-    <row r="528" spans="1:8">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>159.19999999999999</v>
       </c>
@@ -12402,7 +12444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:8">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>30</v>
       </c>
@@ -12416,7 +12458,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="534" spans="1:8">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>26</v>
       </c>
@@ -12442,7 +12484,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="535" spans="1:8">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>40</v>
       </c>
@@ -12462,7 +12504,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="536" spans="1:8">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>0</v>
       </c>
@@ -12488,7 +12530,7 @@
         <v>3.8079999999999998</v>
       </c>
     </row>
-    <row r="537" spans="1:8">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>5.9</v>
       </c>
@@ -12514,7 +12556,7 @@
         <v>3.8149999999999999</v>
       </c>
     </row>
-    <row r="538" spans="1:8">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>11.8</v>
       </c>
@@ -12540,7 +12582,7 @@
         <v>3.8220000000000001</v>
       </c>
     </row>
-    <row r="539" spans="1:8">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>17.600000000000001</v>
       </c>
@@ -12566,7 +12608,7 @@
         <v>3.831</v>
       </c>
     </row>
-    <row r="540" spans="1:8">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>23.5</v>
       </c>
@@ -12592,7 +12634,7 @@
         <v>3.8410000000000002</v>
       </c>
     </row>
-    <row r="541" spans="1:8">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>29.4</v>
       </c>
@@ -12618,7 +12660,7 @@
         <v>3.851</v>
       </c>
     </row>
-    <row r="542" spans="1:8">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>35.299999999999997</v>
       </c>
@@ -12644,7 +12686,7 @@
         <v>3.863</v>
       </c>
     </row>
-    <row r="543" spans="1:8">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>41.2</v>
       </c>
@@ -12670,7 +12712,7 @@
         <v>3.875</v>
       </c>
     </row>
-    <row r="544" spans="1:8">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>47</v>
       </c>
@@ -12696,7 +12738,7 @@
         <v>3.8889999999999998</v>
       </c>
     </row>
-    <row r="545" spans="1:8">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>52.9</v>
       </c>
@@ -12722,7 +12764,7 @@
         <v>3.903</v>
       </c>
     </row>
-    <row r="546" spans="1:8">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>58.8</v>
       </c>
@@ -12748,7 +12790,7 @@
         <v>3.915</v>
       </c>
     </row>
-    <row r="547" spans="1:8">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>64.7</v>
       </c>
@@ -12774,7 +12816,7 @@
         <v>3.9260000000000002</v>
       </c>
     </row>
-    <row r="548" spans="1:8">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>70.5</v>
       </c>
@@ -12800,7 +12842,7 @@
         <v>3.9380000000000002</v>
       </c>
     </row>
-    <row r="549" spans="1:8">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>76.400000000000006</v>
       </c>
@@ -12826,7 +12868,7 @@
         <v>3.9430000000000001</v>
       </c>
     </row>
-    <row r="550" spans="1:8">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>82.3</v>
       </c>
@@ -12852,7 +12894,7 @@
         <v>3.93</v>
       </c>
     </row>
-    <row r="551" spans="1:8">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>88.2</v>
       </c>
@@ -12878,7 +12920,7 @@
         <v>3.8959999999999999</v>
       </c>
     </row>
-    <row r="552" spans="1:8">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>94.1</v>
       </c>
@@ -12904,7 +12946,7 @@
         <v>3.8359999999999999</v>
       </c>
     </row>
-    <row r="553" spans="1:8">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>99.9</v>
       </c>
@@ -12930,7 +12972,7 @@
         <v>3.7450000000000001</v>
       </c>
     </row>
-    <row r="554" spans="1:8">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>105.8</v>
       </c>
@@ -12956,7 +12998,7 @@
         <v>3.6120000000000001</v>
       </c>
     </row>
-    <row r="555" spans="1:8">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>111.7</v>
       </c>
@@ -12982,7 +13024,7 @@
         <v>3.4239999999999999</v>
       </c>
     </row>
-    <row r="556" spans="1:8">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>117.6</v>
       </c>
@@ -13008,7 +13050,7 @@
         <v>3.1539999999999999</v>
       </c>
     </row>
-    <row r="557" spans="1:8">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>123.5</v>
       </c>
@@ -13034,7 +13076,7 @@
         <v>2.8250000000000002</v>
       </c>
     </row>
-    <row r="558" spans="1:8">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>129.30000000000001</v>
       </c>
@@ -13060,7 +13102,7 @@
         <v>2.4929999999999999</v>
       </c>
     </row>
-    <row r="559" spans="1:8">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>135.19999999999999</v>
       </c>
@@ -13086,7 +13128,7 @@
         <v>2.1560000000000001</v>
       </c>
     </row>
-    <row r="560" spans="1:8">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>141.1</v>
       </c>
@@ -13112,7 +13154,7 @@
         <v>1.8129999999999999</v>
       </c>
     </row>
-    <row r="561" spans="1:8">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>147</v>
       </c>
@@ -13138,7 +13180,7 @@
         <v>1.452</v>
       </c>
     </row>
-    <row r="562" spans="1:8">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>152.80000000000001</v>
       </c>
@@ -13164,7 +13206,7 @@
         <v>1.093</v>
       </c>
     </row>
-    <row r="563" spans="1:8">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>158.69999999999999</v>
       </c>
@@ -13190,7 +13232,7 @@
         <v>0.72699999999999998</v>
       </c>
     </row>
-    <row r="564" spans="1:8">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>164.6</v>
       </c>
@@ -13216,7 +13258,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="565" spans="1:8">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>170.5</v>
       </c>
@@ -13242,7 +13284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:8">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>30</v>
       </c>
@@ -13256,7 +13298,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="571" spans="1:8">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>26</v>
       </c>
@@ -13282,7 +13324,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="572" spans="1:8">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>40</v>
       </c>
@@ -13302,7 +13344,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="573" spans="1:8">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>0</v>
       </c>
@@ -13328,7 +13370,7 @@
         <v>4.3890000000000002</v>
       </c>
     </row>
-    <row r="574" spans="1:8">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>6.3</v>
       </c>
@@ -13354,7 +13396,7 @@
         <v>4.399</v>
       </c>
     </row>
-    <row r="575" spans="1:8">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>12.5</v>
       </c>
@@ -13380,7 +13422,7 @@
         <v>4.4109999999999996</v>
       </c>
     </row>
-    <row r="576" spans="1:8">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>18.8</v>
       </c>
@@ -13406,7 +13448,7 @@
         <v>4.4249999999999998</v>
       </c>
     </row>
-    <row r="577" spans="1:8">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>25.1</v>
       </c>
@@ -13432,7 +13474,7 @@
         <v>4.4390000000000001</v>
       </c>
     </row>
-    <row r="578" spans="1:8">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>31.3</v>
       </c>
@@ -13458,7 +13500,7 @@
         <v>4.4560000000000004</v>
       </c>
     </row>
-    <row r="579" spans="1:8">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>37.6</v>
       </c>
@@ -13484,7 +13526,7 @@
         <v>4.4729999999999999</v>
       </c>
     </row>
-    <row r="580" spans="1:8">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>43.8</v>
       </c>
@@ -13510,7 +13552,7 @@
         <v>4.4909999999999997</v>
       </c>
     </row>
-    <row r="581" spans="1:8">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>50.1</v>
       </c>
@@ -13536,7 +13578,7 @@
         <v>4.51</v>
       </c>
     </row>
-    <row r="582" spans="1:8">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>56.4</v>
       </c>
@@ -13562,7 +13604,7 @@
         <v>4.5289999999999999</v>
       </c>
     </row>
-    <row r="583" spans="1:8">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>62.6</v>
       </c>
@@ -13588,7 +13630,7 @@
         <v>4.5469999999999997</v>
       </c>
     </row>
-    <row r="584" spans="1:8">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>68.900000000000006</v>
       </c>
@@ -13614,7 +13656,7 @@
         <v>4.5599999999999996</v>
       </c>
     </row>
-    <row r="585" spans="1:8">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>75.2</v>
       </c>
@@ -13640,7 +13682,7 @@
         <v>4.57</v>
       </c>
     </row>
-    <row r="586" spans="1:8">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>81.400000000000006</v>
       </c>
@@ -13666,7 +13708,7 @@
         <v>4.5679999999999996</v>
       </c>
     </row>
-    <row r="587" spans="1:8">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>87.7</v>
       </c>
@@ -13692,7 +13734,7 @@
         <v>4.5449999999999999</v>
       </c>
     </row>
-    <row r="588" spans="1:8">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>93.9</v>
       </c>
@@ -13718,7 +13760,7 @@
         <v>4.4989999999999997</v>
       </c>
     </row>
-    <row r="589" spans="1:8">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>100.2</v>
       </c>
@@ -13744,7 +13786,7 @@
         <v>4.4260000000000002</v>
       </c>
     </row>
-    <row r="590" spans="1:8">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>106.5</v>
       </c>
@@ -13770,7 +13812,7 @@
         <v>4.3209999999999997</v>
       </c>
     </row>
-    <row r="591" spans="1:8">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>112.7</v>
       </c>
@@ -13796,7 +13838,7 @@
         <v>4.1689999999999996</v>
       </c>
     </row>
-    <row r="592" spans="1:8">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>119</v>
       </c>
@@ -13822,7 +13864,7 @@
         <v>3.9580000000000002</v>
       </c>
     </row>
-    <row r="593" spans="1:8">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>125.3</v>
       </c>
@@ -13848,7 +13890,7 @@
         <v>3.6560000000000001</v>
       </c>
     </row>
-    <row r="594" spans="1:8">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>131.5</v>
       </c>
@@ -13874,7 +13916,7 @@
         <v>3.274</v>
       </c>
     </row>
-    <row r="595" spans="1:8">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>137.80000000000001</v>
       </c>
@@ -13900,7 +13942,7 @@
         <v>2.891</v>
       </c>
     </row>
-    <row r="596" spans="1:8">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>144.1</v>
       </c>
@@ -13926,7 +13968,7 @@
         <v>2.4990000000000001</v>
       </c>
     </row>
-    <row r="597" spans="1:8">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>150.30000000000001</v>
       </c>
@@ -13952,7 +13994,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="598" spans="1:8">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>156.6</v>
       </c>
@@ -13978,7 +14020,7 @@
         <v>1.6919999999999999</v>
       </c>
     </row>
-    <row r="599" spans="1:8">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>162.80000000000001</v>
       </c>
@@ -14004,7 +14046,7 @@
         <v>1.2769999999999999</v>
       </c>
     </row>
-    <row r="600" spans="1:8">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>169.1</v>
       </c>
@@ -14030,7 +14072,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="601" spans="1:8">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>175.4</v>
       </c>
@@ -14056,7 +14098,7 @@
         <v>0.41899999999999998</v>
       </c>
     </row>
-    <row r="602" spans="1:8">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>181.6</v>
       </c>
@@ -14082,7 +14124,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="606" spans="1:8">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>30</v>
       </c>
@@ -14096,7 +14138,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="608" spans="1:8">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>26</v>
       </c>
@@ -14122,7 +14164,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="609" spans="1:8">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>40</v>
       </c>
@@ -14142,7 +14184,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="610" spans="1:8">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>0</v>
       </c>
@@ -14168,7 +14210,7 @@
         <v>5.0629999999999997</v>
       </c>
     </row>
-    <row r="611" spans="1:8">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>6.7</v>
       </c>
@@ -14194,7 +14236,7 @@
         <v>5.0789999999999997</v>
       </c>
     </row>
-    <row r="612" spans="1:8">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>13.3</v>
       </c>
@@ -14220,7 +14262,7 @@
         <v>5.0960000000000001</v>
       </c>
     </row>
-    <row r="613" spans="1:8">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>20</v>
       </c>
@@ -14246,7 +14288,7 @@
         <v>5.1150000000000002</v>
       </c>
     </row>
-    <row r="614" spans="1:8">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>26.6</v>
       </c>
@@ -14272,7 +14314,7 @@
         <v>5.1340000000000003</v>
       </c>
     </row>
-    <row r="615" spans="1:8">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>33.299999999999997</v>
       </c>
@@ -14298,7 +14340,7 @@
         <v>5.1539999999999999</v>
       </c>
     </row>
-    <row r="616" spans="1:8">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>40</v>
       </c>
@@ -14324,7 +14366,7 @@
         <v>5.1740000000000004</v>
       </c>
     </row>
-    <row r="617" spans="1:8">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>46.6</v>
       </c>
@@ -14350,7 +14392,7 @@
         <v>5.194</v>
       </c>
     </row>
-    <row r="618" spans="1:8">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>53.3</v>
       </c>
@@ -14376,7 +14418,7 @@
         <v>5.2130000000000001</v>
       </c>
     </row>
-    <row r="619" spans="1:8">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>59.9</v>
       </c>
@@ -14402,7 +14444,7 @@
         <v>5.2309999999999999</v>
       </c>
     </row>
-    <row r="620" spans="1:8">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>66.599999999999994</v>
       </c>
@@ -14428,7 +14470,7 @@
         <v>5.2469999999999999</v>
       </c>
     </row>
-    <row r="621" spans="1:8">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>73.3</v>
       </c>
@@ -14454,7 +14496,7 @@
         <v>5.2569999999999997</v>
       </c>
     </row>
-    <row r="622" spans="1:8">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>79.900000000000006</v>
       </c>
@@ -14480,7 +14522,7 @@
         <v>5.26</v>
       </c>
     </row>
-    <row r="623" spans="1:8">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>86.6</v>
       </c>
@@ -14506,7 +14548,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="624" spans="1:8">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>93.2</v>
       </c>
@@ -14532,7 +14574,7 @@
         <v>5.2169999999999996</v>
       </c>
     </row>
-    <row r="625" spans="1:8">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>99.9</v>
       </c>
@@ -14558,7 +14600,7 @@
         <v>5.1559999999999997</v>
       </c>
     </row>
-    <row r="626" spans="1:8">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>106.5</v>
       </c>
@@ -14584,7 +14626,7 @@
         <v>5.0679999999999996</v>
       </c>
     </row>
-    <row r="627" spans="1:8">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>113.2</v>
       </c>
@@ -14610,7 +14652,7 @@
         <v>4.9450000000000003</v>
       </c>
     </row>
-    <row r="628" spans="1:8">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>119.9</v>
       </c>
@@ -14636,7 +14678,7 @@
         <v>4.7729999999999997</v>
       </c>
     </row>
-    <row r="629" spans="1:8">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>126.5</v>
       </c>
@@ -14662,7 +14704,7 @@
         <v>4.5350000000000001</v>
       </c>
     </row>
-    <row r="630" spans="1:8">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>133.19999999999999</v>
       </c>
@@ -14688,7 +14730,7 @@
         <v>4.2009999999999996</v>
       </c>
     </row>
-    <row r="631" spans="1:8">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>139.80000000000001</v>
       </c>
@@ -14714,7 +14756,7 @@
         <v>3.7610000000000001</v>
       </c>
     </row>
-    <row r="632" spans="1:8">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>146.5</v>
       </c>
@@ -14740,7 +14782,7 @@
         <v>3.319</v>
       </c>
     </row>
-    <row r="633" spans="1:8">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>153.19999999999999</v>
       </c>
@@ -14766,7 +14808,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="634" spans="1:8">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>159.80000000000001</v>
       </c>
@@ -14792,7 +14834,7 @@
         <v>2.4089999999999998</v>
       </c>
     </row>
-    <row r="635" spans="1:8">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>166.5</v>
       </c>
@@ -14818,7 +14860,7 @@
         <v>1.9379999999999999</v>
       </c>
     </row>
-    <row r="636" spans="1:8">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>173.1</v>
       </c>
@@ -14844,7 +14886,7 @@
         <v>1.458</v>
       </c>
     </row>
-    <row r="637" spans="1:8">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>179.8</v>
       </c>
@@ -14870,7 +14912,7 @@
         <v>0.97099999999999997</v>
       </c>
     </row>
-    <row r="638" spans="1:8">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>186.5</v>
       </c>
@@ -14896,7 +14938,7 @@
         <v>0.48499999999999999</v>
       </c>
     </row>
-    <row r="639" spans="1:8">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>193.1</v>
       </c>
@@ -14922,7 +14964,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="643" spans="1:8">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>30</v>
       </c>
@@ -14936,7 +14978,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="645" spans="1:8">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>26</v>
       </c>
@@ -14962,7 +15004,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="646" spans="1:8">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>40</v>
       </c>
@@ -14982,7 +15024,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="647" spans="1:8">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>0</v>
       </c>
@@ -15008,7 +15050,7 @@
         <v>5.7990000000000004</v>
       </c>
     </row>
-    <row r="648" spans="1:8">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>7.1</v>
       </c>
@@ -15034,7 +15076,7 @@
         <v>5.8220000000000001</v>
       </c>
     </row>
-    <row r="649" spans="1:8">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>14.1</v>
       </c>
@@ -15060,7 +15102,7 @@
         <v>5.8460000000000001</v>
       </c>
     </row>
-    <row r="650" spans="1:8">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>21.2</v>
       </c>
@@ -15086,7 +15128,7 @@
         <v>5.8710000000000004</v>
       </c>
     </row>
-    <row r="651" spans="1:8">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>28.2</v>
       </c>
@@ -15112,7 +15154,7 @@
         <v>5.8949999999999996</v>
       </c>
     </row>
-    <row r="652" spans="1:8">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>35.299999999999997</v>
       </c>
@@ -15138,7 +15180,7 @@
         <v>5.92</v>
       </c>
     </row>
-    <row r="653" spans="1:8">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>42.3</v>
       </c>
@@ -15164,7 +15206,7 @@
         <v>5.9429999999999996</v>
       </c>
     </row>
-    <row r="654" spans="1:8">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>49.4</v>
       </c>
@@ -15190,7 +15232,7 @@
         <v>5.9660000000000002</v>
       </c>
     </row>
-    <row r="655" spans="1:8">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>56.5</v>
       </c>
@@ -15216,7 +15258,7 @@
         <v>5.9859999999999998</v>
       </c>
     </row>
-    <row r="656" spans="1:8">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>63.5</v>
       </c>
@@ -15242,7 +15284,7 @@
         <v>6.0030000000000001</v>
       </c>
     </row>
-    <row r="657" spans="1:8">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>70.599999999999994</v>
       </c>
@@ -15268,7 +15310,7 @@
         <v>6.016</v>
       </c>
     </row>
-    <row r="658" spans="1:8">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>77.599999999999994</v>
       </c>
@@ -15294,7 +15336,7 @@
         <v>6.0229999999999997</v>
       </c>
     </row>
-    <row r="659" spans="1:8">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>84.7</v>
       </c>
@@ -15320,7 +15362,7 @@
         <v>6.0209999999999999</v>
       </c>
     </row>
-    <row r="660" spans="1:8">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>91.8</v>
       </c>
@@ -15346,7 +15388,7 @@
         <v>6.0010000000000003</v>
       </c>
     </row>
-    <row r="661" spans="1:8">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>98.8</v>
       </c>
@@ -15372,7 +15414,7 @@
         <v>5.9550000000000001</v>
       </c>
     </row>
-    <row r="662" spans="1:8">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>105.9</v>
       </c>
@@ -15398,7 +15440,7 @@
         <v>5.8769999999999998</v>
       </c>
     </row>
-    <row r="663" spans="1:8">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>112.9</v>
       </c>
@@ -15424,7 +15466,7 @@
         <v>5.7709999999999999</v>
       </c>
     </row>
-    <row r="664" spans="1:8">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>120</v>
       </c>
@@ -15450,7 +15492,7 @@
         <v>5.63</v>
       </c>
     </row>
-    <row r="665" spans="1:8">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>127</v>
       </c>
@@ -15476,7 +15518,7 @@
         <v>5.4379999999999997</v>
       </c>
     </row>
-    <row r="666" spans="1:8">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>134.1</v>
       </c>
@@ -15502,7 +15544,7 @@
         <v>5.1719999999999997</v>
       </c>
     </row>
-    <row r="667" spans="1:8">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>141.19999999999999</v>
       </c>
@@ -15528,7 +15570,7 @@
         <v>4.8019999999999996</v>
       </c>
     </row>
-    <row r="668" spans="1:8">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>148.19999999999999</v>
       </c>
@@ -15554,7 +15596,7 @@
         <v>4.3029999999999999</v>
       </c>
     </row>
-    <row r="669" spans="1:8">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>155.30000000000001</v>
       </c>
@@ -15580,7 +15622,7 @@
         <v>3.7959999999999998</v>
       </c>
     </row>
-    <row r="670" spans="1:8">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>162.30000000000001</v>
       </c>
@@ -15606,7 +15648,7 @@
         <v>3.2810000000000001</v>
       </c>
     </row>
-    <row r="671" spans="1:8">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>169.4</v>
       </c>
@@ -15632,7 +15674,7 @@
         <v>2.7530000000000001</v>
       </c>
     </row>
-    <row r="672" spans="1:8">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>176.5</v>
       </c>
@@ -15658,7 +15700,7 @@
         <v>2.2160000000000002</v>
       </c>
     </row>
-    <row r="673" spans="1:8">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>183.5</v>
       </c>
@@ -15684,7 +15726,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="674" spans="1:8">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>190.6</v>
       </c>
@@ -15710,7 +15752,7 @@
         <v>1.1140000000000001</v>
       </c>
     </row>
-    <row r="675" spans="1:8">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>197.6</v>
       </c>
@@ -15736,7 +15778,7 @@
         <v>0.55100000000000005</v>
       </c>
     </row>
-    <row r="676" spans="1:8">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>204.7</v>
       </c>
@@ -15762,7 +15804,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="680" spans="1:8">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>30</v>
       </c>
@@ -15776,7 +15818,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="682" spans="1:8">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>26</v>
       </c>
@@ -15802,7 +15844,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="683" spans="1:8">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>40</v>
       </c>
@@ -15822,7 +15864,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="684" spans="1:8">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>0</v>
       </c>
@@ -15848,7 +15890,7 @@
         <v>6.6109999999999998</v>
       </c>
     </row>
-    <row r="685" spans="1:8">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>7.4</v>
       </c>
@@ -15874,7 +15916,7 @@
         <v>6.6420000000000003</v>
       </c>
     </row>
-    <row r="686" spans="1:8">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>14.9</v>
       </c>
@@ -15900,7 +15942,7 @@
         <v>6.6749999999999998</v>
       </c>
     </row>
-    <row r="687" spans="1:8">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>22.3</v>
       </c>
@@ -15926,7 +15968,7 @@
         <v>6.7089999999999996</v>
       </c>
     </row>
-    <row r="688" spans="1:8">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>29.8</v>
       </c>
@@ -15952,7 +15994,7 @@
         <v>6.7389999999999999</v>
       </c>
     </row>
-    <row r="689" spans="1:8">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>37.200000000000003</v>
       </c>
@@ -15978,7 +16020,7 @@
         <v>6.77</v>
       </c>
     </row>
-    <row r="690" spans="1:8">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>44.7</v>
       </c>
@@ -16004,7 +16046,7 @@
         <v>6.798</v>
       </c>
     </row>
-    <row r="691" spans="1:8">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>52.1</v>
       </c>
@@ -16030,7 +16072,7 @@
         <v>6.8230000000000004</v>
       </c>
     </row>
-    <row r="692" spans="1:8">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>59.6</v>
       </c>
@@ -16056,7 +16098,7 @@
         <v>6.8440000000000003</v>
       </c>
     </row>
-    <row r="693" spans="1:8">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>67</v>
       </c>
@@ -16082,7 +16124,7 @@
         <v>6.86</v>
       </c>
     </row>
-    <row r="694" spans="1:8">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>74.5</v>
       </c>
@@ -16108,7 +16150,7 @@
         <v>6.87</v>
       </c>
     </row>
-    <row r="695" spans="1:8">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>81.900000000000006</v>
       </c>
@@ -16134,7 +16176,7 @@
         <v>6.8719999999999999</v>
       </c>
     </row>
-    <row r="696" spans="1:8">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>89.4</v>
       </c>
@@ -16160,7 +16202,7 @@
         <v>6.8659999999999997</v>
       </c>
     </row>
-    <row r="697" spans="1:8">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>96.8</v>
       </c>
@@ -16186,7 +16228,7 @@
         <v>6.8380000000000001</v>
       </c>
     </row>
-    <row r="698" spans="1:8">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>104.3</v>
       </c>
@@ -16212,7 +16254,7 @@
         <v>6.7809999999999997</v>
       </c>
     </row>
-    <row r="699" spans="1:8">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>111.7</v>
       </c>
@@ -16238,7 +16280,7 @@
         <v>6.6879999999999997</v>
       </c>
     </row>
-    <row r="700" spans="1:8">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>119.2</v>
       </c>
@@ -16264,7 +16306,7 @@
         <v>6.56</v>
       </c>
     </row>
-    <row r="701" spans="1:8">
+    <row r="701" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>126.6</v>
       </c>
@@ -16290,7 +16332,7 @@
         <v>6.3979999999999997</v>
       </c>
     </row>
-    <row r="702" spans="1:8">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>134.1</v>
       </c>
@@ -16316,7 +16358,7 @@
         <v>6.19</v>
       </c>
     </row>
-    <row r="703" spans="1:8">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>141.5</v>
       </c>
@@ -16342,7 +16384,7 @@
         <v>5.9009999999999998</v>
       </c>
     </row>
-    <row r="704" spans="1:8">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>149</v>
       </c>
@@ -16368,7 +16410,7 @@
         <v>5.4969999999999999</v>
       </c>
     </row>
-    <row r="705" spans="1:8">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>156.4</v>
       </c>
@@ -16394,7 +16436,7 @@
         <v>4.9409999999999998</v>
       </c>
     </row>
-    <row r="706" spans="1:8">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>163.9</v>
       </c>
@@ -16420,7 +16462,7 @@
         <v>4.3559999999999999</v>
       </c>
     </row>
-    <row r="707" spans="1:8">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>171.3</v>
       </c>
@@ -16446,7 +16488,7 @@
         <v>3.7679999999999998</v>
       </c>
     </row>
-    <row r="708" spans="1:8">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>178.8</v>
       </c>
@@ -16472,7 +16514,7 @@
         <v>3.1680000000000001</v>
       </c>
     </row>
-    <row r="709" spans="1:8">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>186.2</v>
       </c>
@@ -16498,7 +16540,7 @@
         <v>2.556</v>
       </c>
     </row>
-    <row r="710" spans="1:8">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>193.7</v>
       </c>
@@ -16524,7 +16566,7 @@
         <v>1.9339999999999999</v>
       </c>
     </row>
-    <row r="711" spans="1:8">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>201.1</v>
       </c>
@@ -16550,7 +16592,7 @@
         <v>1.2969999999999999</v>
       </c>
     </row>
-    <row r="712" spans="1:8">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>208.6</v>
       </c>
@@ -16576,7 +16618,7 @@
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="713" spans="1:8">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>216</v>
       </c>
@@ -16602,7 +16644,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="717" spans="1:8">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>30</v>
       </c>
@@ -16616,7 +16658,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="719" spans="1:8">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>26</v>
       </c>
@@ -16642,7 +16684,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="720" spans="1:8">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>40</v>
       </c>
@@ -16662,7 +16704,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="721" spans="1:8">
+    <row r="721" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>0</v>
       </c>
@@ -16688,7 +16730,7 @@
         <v>7.6239999999999997</v>
       </c>
     </row>
-    <row r="722" spans="1:8">
+    <row r="722" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>7.8</v>
       </c>
@@ -16714,7 +16756,7 @@
         <v>7.6669999999999998</v>
       </c>
     </row>
-    <row r="723" spans="1:8">
+    <row r="723" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>15.7</v>
       </c>
@@ -16740,7 +16782,7 @@
         <v>7.7160000000000002</v>
       </c>
     </row>
-    <row r="724" spans="1:8">
+    <row r="724" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>23.5</v>
       </c>
@@ -16766,7 +16808,7 @@
         <v>7.7590000000000003</v>
       </c>
     </row>
-    <row r="725" spans="1:8">
+    <row r="725" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>31.3</v>
       </c>
@@ -16792,7 +16834,7 @@
         <v>7.8019999999999996</v>
       </c>
     </row>
-    <row r="726" spans="1:8">
+    <row r="726" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>39.1</v>
       </c>
@@ -16818,7 +16860,7 @@
         <v>7.8460000000000001</v>
       </c>
     </row>
-    <row r="727" spans="1:8">
+    <row r="727" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>47</v>
       </c>
@@ -16844,7 +16886,7 @@
         <v>7.8840000000000003</v>
       </c>
     </row>
-    <row r="728" spans="1:8">
+    <row r="728" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>54.8</v>
       </c>
@@ -16870,7 +16912,7 @@
         <v>7.9169999999999998</v>
       </c>
     </row>
-    <row r="729" spans="1:8">
+    <row r="729" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>62.6</v>
       </c>
@@ -16896,7 +16938,7 @@
         <v>7.9470000000000001</v>
       </c>
     </row>
-    <row r="730" spans="1:8">
+    <row r="730" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>70.5</v>
       </c>
@@ -16922,7 +16964,7 @@
         <v>7.9790000000000001</v>
       </c>
     </row>
-    <row r="731" spans="1:8">
+    <row r="731" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>78.3</v>
       </c>
@@ -16948,7 +16990,7 @@
         <v>7.9969999999999999</v>
       </c>
     </row>
-    <row r="732" spans="1:8">
+    <row r="732" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>86.1</v>
       </c>
@@ -16974,7 +17016,7 @@
         <v>7.9950000000000001</v>
       </c>
     </row>
-    <row r="733" spans="1:8">
+    <row r="733" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>93.9</v>
       </c>
@@ -17000,7 +17042,7 @@
         <v>7.9610000000000003</v>
       </c>
     </row>
-    <row r="734" spans="1:8">
+    <row r="734" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>101.8</v>
       </c>
@@ -17026,7 +17068,7 @@
         <v>7.9050000000000002</v>
       </c>
     </row>
-    <row r="735" spans="1:8">
+    <row r="735" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>109.6</v>
       </c>
@@ -17052,7 +17094,7 @@
         <v>7.8179999999999996</v>
       </c>
     </row>
-    <row r="736" spans="1:8">
+    <row r="736" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>117.4</v>
       </c>
@@ -17078,7 +17120,7 @@
         <v>7.6980000000000004</v>
       </c>
     </row>
-    <row r="737" spans="1:8">
+    <row r="737" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>125.3</v>
       </c>
@@ -17104,7 +17146,7 @@
         <v>7.5540000000000003</v>
       </c>
     </row>
-    <row r="738" spans="1:8">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>133.1</v>
       </c>
@@ -17130,7 +17172,7 @@
         <v>7.38</v>
       </c>
     </row>
-    <row r="739" spans="1:8">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A739">
         <v>140.9</v>
       </c>
@@ -17156,7 +17198,7 @@
         <v>7.093</v>
       </c>
     </row>
-    <row r="740" spans="1:8">
+    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>148.80000000000001</v>
       </c>
@@ -17182,7 +17224,7 @@
         <v>6.7889999999999997</v>
       </c>
     </row>
-    <row r="741" spans="1:8">
+    <row r="741" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A741">
         <v>156.6</v>
       </c>
@@ -17208,7 +17250,7 @@
         <v>6.3869999999999996</v>
       </c>
     </row>
-    <row r="742" spans="1:8">
+    <row r="742" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A742">
         <v>164.4</v>
       </c>
@@ -17234,7 +17276,7 @@
         <v>5.7549999999999999</v>
       </c>
     </row>
-    <row r="743" spans="1:8">
+    <row r="743" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>172.2</v>
       </c>
@@ -17260,7 +17302,7 @@
         <v>5.0439999999999996</v>
       </c>
     </row>
-    <row r="744" spans="1:8">
+    <row r="744" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>180.1</v>
       </c>
@@ -17286,7 +17328,7 @@
         <v>4.3739999999999997</v>
       </c>
     </row>
-    <row r="745" spans="1:8">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>187.9</v>
       </c>
@@ -17312,7 +17354,7 @@
         <v>3.68</v>
       </c>
     </row>
-    <row r="746" spans="1:8">
+    <row r="746" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>195.7</v>
       </c>
@@ -17338,7 +17380,7 @@
         <v>2.972</v>
       </c>
     </row>
-    <row r="747" spans="1:8">
+    <row r="747" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>203.6</v>
       </c>
@@ -17364,7 +17406,7 @@
         <v>2.2559999999999998</v>
       </c>
     </row>
-    <row r="748" spans="1:8">
+    <row r="748" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A748">
         <v>211.4</v>
       </c>
@@ -17390,7 +17432,7 @@
         <v>1.524</v>
       </c>
     </row>
-    <row r="749" spans="1:8">
+    <row r="749" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A749">
         <v>219.2</v>
       </c>
@@ -17416,7 +17458,7 @@
         <v>0.77800000000000002</v>
       </c>
     </row>
-    <row r="750" spans="1:8">
+    <row r="750" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A750">
         <v>227</v>
       </c>
@@ -17442,7 +17484,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="754" spans="1:8">
+    <row r="754" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>30</v>
       </c>
@@ -17456,7 +17498,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="756" spans="1:8">
+    <row r="756" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>26</v>
       </c>
@@ -17482,7 +17524,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="757" spans="1:8">
+    <row r="757" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>40</v>
       </c>
@@ -17502,7 +17544,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="758" spans="1:8">
+    <row r="758" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A758">
         <v>0</v>
       </c>
@@ -17528,7 +17570,7 @@
         <v>8.782</v>
       </c>
     </row>
-    <row r="759" spans="1:8">
+    <row r="759" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A759">
         <v>8.1999999999999993</v>
       </c>
@@ -17554,7 +17596,7 @@
         <v>8.8460000000000001</v>
       </c>
     </row>
-    <row r="760" spans="1:8">
+    <row r="760" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A760">
         <v>16.399999999999999</v>
       </c>
@@ -17580,7 +17622,7 @@
         <v>8.9019999999999992</v>
       </c>
     </row>
-    <row r="761" spans="1:8">
+    <row r="761" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A761">
         <v>24.6</v>
       </c>
@@ -17606,7 +17648,7 @@
         <v>8.9640000000000004</v>
       </c>
     </row>
-    <row r="762" spans="1:8">
+    <row r="762" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A762">
         <v>32.9</v>
       </c>
@@ -17632,7 +17674,7 @@
         <v>9.016</v>
       </c>
     </row>
-    <row r="763" spans="1:8">
+    <row r="763" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A763">
         <v>41.1</v>
       </c>
@@ -17658,7 +17700,7 @@
         <v>9.0670000000000002</v>
       </c>
     </row>
-    <row r="764" spans="1:8">
+    <row r="764" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A764">
         <v>49.3</v>
       </c>
@@ -17684,7 +17726,7 @@
         <v>9.109</v>
       </c>
     </row>
-    <row r="765" spans="1:8">
+    <row r="765" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A765">
         <v>57.5</v>
       </c>
@@ -17710,7 +17752,7 @@
         <v>9.1379999999999999</v>
       </c>
     </row>
-    <row r="766" spans="1:8">
+    <row r="766" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A766">
         <v>65.7</v>
       </c>
@@ -17736,7 +17778,7 @@
         <v>9.157</v>
       </c>
     </row>
-    <row r="767" spans="1:8">
+    <row r="767" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A767">
         <v>73.900000000000006</v>
       </c>
@@ -17762,7 +17804,7 @@
         <v>9.1769999999999996</v>
       </c>
     </row>
-    <row r="768" spans="1:8">
+    <row r="768" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A768">
         <v>82.1</v>
       </c>
@@ -17788,7 +17830,7 @@
         <v>9.1709999999999994</v>
       </c>
     </row>
-    <row r="769" spans="1:8">
+    <row r="769" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A769">
         <v>90.3</v>
       </c>
@@ -17814,7 +17856,7 @@
         <v>9.1530000000000005</v>
       </c>
     </row>
-    <row r="770" spans="1:8">
+    <row r="770" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A770">
         <v>98.6</v>
       </c>
@@ -17840,7 +17882,7 @@
         <v>9.1229999999999993</v>
       </c>
     </row>
-    <row r="771" spans="1:8">
+    <row r="771" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A771">
         <v>106.8</v>
       </c>
@@ -17866,7 +17908,7 @@
         <v>9.0830000000000002</v>
       </c>
     </row>
-    <row r="772" spans="1:8">
+    <row r="772" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A772">
         <v>115</v>
       </c>
@@ -17892,7 +17934,7 @@
         <v>9.0370000000000008</v>
       </c>
     </row>
-    <row r="773" spans="1:8">
+    <row r="773" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A773">
         <v>123.2</v>
       </c>
@@ -17918,7 +17960,7 @@
         <v>8.9809999999999999</v>
       </c>
     </row>
-    <row r="774" spans="1:8">
+    <row r="774" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A774">
         <v>131.4</v>
       </c>
@@ -17944,7 +17986,7 @@
         <v>8.8010000000000002</v>
       </c>
     </row>
-    <row r="775" spans="1:8">
+    <row r="775" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A775">
         <v>139.6</v>
       </c>
@@ -17970,7 +18012,7 @@
         <v>8.5549999999999997</v>
       </c>
     </row>
-    <row r="776" spans="1:8">
+    <row r="776" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A776">
         <v>147.80000000000001</v>
       </c>
@@ -17996,7 +18038,7 @@
         <v>8.2720000000000002</v>
       </c>
     </row>
-    <row r="777" spans="1:8">
+    <row r="777" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A777">
         <v>156.1</v>
       </c>
@@ -18022,35 +18064,33 @@
         <v>7.93</v>
       </c>
     </row>
-    <row r="778" spans="1:8">
+    <row r="778" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A778">
         <v>164.3</v>
       </c>
-      <c r="B778" t="s">
-        <v>46</v>
-      </c>
-      <c r="C778" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D778" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E778" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F778" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G778" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="779" spans="1:8">
+      <c r="B778">
+        <v>0.95</v>
+      </c>
+      <c r="C778">
+        <v>0</v>
+      </c>
+      <c r="D778">
+        <v>0</v>
+      </c>
+      <c r="E778">
+        <v>0</v>
+      </c>
+      <c r="F778">
+        <v>0</v>
+      </c>
+      <c r="G778">
+        <v>0</v>
+      </c>
+      <c r="H778">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="779" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A779">
         <v>172.5</v>
       </c>
@@ -18076,7 +18116,7 @@
         <v>7.0490000000000004</v>
       </c>
     </row>
-    <row r="780" spans="1:8">
+    <row r="780" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A780">
         <v>180.7</v>
       </c>
@@ -18102,7 +18142,7 @@
         <v>6.1829999999999998</v>
       </c>
     </row>
-    <row r="781" spans="1:8">
+    <row r="781" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A781">
         <v>188.9</v>
       </c>
@@ -18128,7 +18168,7 @@
         <v>5.335</v>
       </c>
     </row>
-    <row r="782" spans="1:8">
+    <row r="782" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A782">
         <v>197.1</v>
       </c>
@@ -18154,7 +18194,7 @@
         <v>4.4690000000000003</v>
       </c>
     </row>
-    <row r="783" spans="1:8">
+    <row r="783" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A783">
         <v>205.3</v>
       </c>
@@ -18180,7 +18220,7 @@
         <v>3.6459999999999999</v>
       </c>
     </row>
-    <row r="784" spans="1:8">
+    <row r="784" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A784">
         <v>213.5</v>
       </c>
@@ -18206,7 +18246,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="785" spans="1:8">
+    <row r="785" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A785">
         <v>221.8</v>
       </c>
@@ -18232,7 +18272,7 @@
         <v>1.8560000000000001</v>
       </c>
     </row>
-    <row r="786" spans="1:8">
+    <row r="786" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A786">
         <v>230</v>
       </c>
@@ -18258,7 +18298,7 @@
         <v>0.93500000000000005</v>
       </c>
     </row>
-    <row r="787" spans="1:8">
+    <row r="787" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A787">
         <v>238.2</v>
       </c>
@@ -18284,7 +18324,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="791" spans="1:8">
+    <row r="791" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>30</v>
       </c>
@@ -18298,7 +18338,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="793" spans="1:8">
+    <row r="793" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>26</v>
       </c>
@@ -18324,7 +18364,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="794" spans="1:8">
+    <row r="794" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>40</v>
       </c>
@@ -18344,7 +18384,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="795" spans="1:8">
+    <row r="795" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A795">
         <v>0</v>
       </c>
@@ -18370,7 +18410,7 @@
         <v>11.555</v>
       </c>
     </row>
-    <row r="796" spans="1:8">
+    <row r="796" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A796">
         <v>9.8000000000000007</v>
       </c>
@@ -18396,7 +18436,7 @@
         <v>11.682</v>
       </c>
     </row>
-    <row r="797" spans="1:8">
+    <row r="797" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A797">
         <v>19.7</v>
       </c>
@@ -18422,7 +18462,7 @@
         <v>11.795</v>
       </c>
     </row>
-    <row r="798" spans="1:8">
+    <row r="798" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A798">
         <v>29.5</v>
       </c>
@@ -18448,7 +18488,7 @@
         <v>11.911</v>
       </c>
     </row>
-    <row r="799" spans="1:8">
+    <row r="799" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A799">
         <v>39.4</v>
       </c>
@@ -18474,7 +18514,7 @@
         <v>12.022</v>
       </c>
     </row>
-    <row r="800" spans="1:8">
+    <row r="800" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A800">
         <v>49.2</v>
       </c>
@@ -18500,7 +18540,7 @@
         <v>12.047000000000001</v>
       </c>
     </row>
-    <row r="801" spans="1:8">
+    <row r="801" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A801">
         <v>59</v>
       </c>
@@ -18526,7 +18566,7 @@
         <v>12.131</v>
       </c>
     </row>
-    <row r="802" spans="1:8">
+    <row r="802" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A802">
         <v>68.900000000000006</v>
       </c>
@@ -18552,7 +18592,7 @@
         <v>12.224</v>
       </c>
     </row>
-    <row r="803" spans="1:8">
+    <row r="803" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A803">
         <v>78.7</v>
       </c>
@@ -18578,7 +18618,7 @@
         <v>12.343999999999999</v>
       </c>
     </row>
-    <row r="804" spans="1:8">
+    <row r="804" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A804">
         <v>88.6</v>
       </c>
@@ -18604,7 +18644,7 @@
         <v>12.407</v>
       </c>
     </row>
-    <row r="805" spans="1:8">
+    <row r="805" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A805">
         <v>98.4</v>
       </c>
@@ -18630,7 +18670,7 @@
         <v>12.403</v>
       </c>
     </row>
-    <row r="806" spans="1:8">
+    <row r="806" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A806">
         <v>108.2</v>
       </c>
@@ -18656,7 +18696,7 @@
         <v>12.465</v>
       </c>
     </row>
-    <row r="807" spans="1:8">
+    <row r="807" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A807">
         <v>118.1</v>
       </c>
@@ -18682,7 +18722,7 @@
         <v>12.481999999999999</v>
       </c>
     </row>
-    <row r="808" spans="1:8">
+    <row r="808" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A808">
         <v>127.9</v>
       </c>
@@ -18708,7 +18748,7 @@
         <v>12.885999999999999</v>
       </c>
     </row>
-    <row r="809" spans="1:8">
+    <row r="809" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A809">
         <v>137.80000000000001</v>
       </c>
@@ -18734,7 +18774,7 @@
         <v>12.784000000000001</v>
       </c>
     </row>
-    <row r="810" spans="1:8">
+    <row r="810" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A810">
         <v>147.6</v>
       </c>
@@ -18760,7 +18800,7 @@
         <v>12.304</v>
       </c>
     </row>
-    <row r="811" spans="1:8">
+    <row r="811" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A811">
         <v>157.4</v>
       </c>
@@ -18786,7 +18826,7 @@
         <v>11.760999999999999</v>
       </c>
     </row>
-    <row r="812" spans="1:8">
+    <row r="812" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A812">
         <v>167.3</v>
       </c>
@@ -18812,7 +18852,7 @@
         <v>11.238</v>
       </c>
     </row>
-    <row r="813" spans="1:8">
+    <row r="813" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A813">
         <v>177.1</v>
       </c>
@@ -18838,7 +18878,7 @@
         <v>10.815</v>
       </c>
     </row>
-    <row r="814" spans="1:8">
+    <row r="814" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A814">
         <v>187</v>
       </c>
@@ -18864,7 +18904,7 @@
         <v>10.339</v>
       </c>
     </row>
-    <row r="815" spans="1:8">
+    <row r="815" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A815">
         <v>196.8</v>
       </c>
@@ -18890,7 +18930,7 @@
         <v>9.5250000000000004</v>
       </c>
     </row>
-    <row r="816" spans="1:8">
+    <row r="816" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A816">
         <v>206.6</v>
       </c>
@@ -18916,7 +18956,7 @@
         <v>8.9169999999999998</v>
       </c>
     </row>
-    <row r="817" spans="1:8">
+    <row r="817" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A817">
         <v>216.5</v>
       </c>
@@ -18942,7 +18982,7 @@
         <v>7.8620000000000001</v>
       </c>
     </row>
-    <row r="818" spans="1:8">
+    <row r="818" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A818">
         <v>226.3</v>
       </c>
@@ -18968,63 +19008,59 @@
         <v>6.82</v>
       </c>
     </row>
-    <row r="819" spans="1:8">
+    <row r="819" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A819">
         <v>236.2</v>
       </c>
-      <c r="B819" t="s">
-        <v>47</v>
-      </c>
-      <c r="C819" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D819" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E819" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F819" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G819" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="820" spans="1:8">
+      <c r="B819">
+        <v>1.19</v>
+      </c>
+      <c r="C819">
+        <v>0</v>
+      </c>
+      <c r="D819">
+        <v>0</v>
+      </c>
+      <c r="E819">
+        <v>0</v>
+      </c>
+      <c r="F819">
+        <v>0</v>
+      </c>
+      <c r="G819">
+        <v>0</v>
+      </c>
+      <c r="H819">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="820" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A820">
         <v>246</v>
       </c>
-      <c r="B820" t="s">
-        <v>48</v>
-      </c>
-      <c r="C820" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D820" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E820" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F820" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G820" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="821" spans="1:8">
+      <c r="B820">
+        <v>1.24</v>
+      </c>
+      <c r="C820">
+        <v>0</v>
+      </c>
+      <c r="D820">
+        <v>0</v>
+      </c>
+      <c r="E820">
+        <v>0</v>
+      </c>
+      <c r="F820">
+        <v>0</v>
+      </c>
+      <c r="G820">
+        <v>0</v>
+      </c>
+      <c r="H820">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="821" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A821">
         <v>255.8</v>
       </c>
@@ -19050,35 +19086,33 @@
         <v>2.5339999999999998</v>
       </c>
     </row>
-    <row r="822" spans="1:8">
+    <row r="822" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A822">
         <v>265.7</v>
       </c>
-      <c r="B822" t="s">
-        <v>49</v>
-      </c>
-      <c r="C822" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D822" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E822" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F822" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G822" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="823" spans="1:8">
+      <c r="B822">
+        <v>1.34</v>
+      </c>
+      <c r="C822">
+        <v>0</v>
+      </c>
+      <c r="D822">
+        <v>0</v>
+      </c>
+      <c r="E822">
+        <v>0</v>
+      </c>
+      <c r="F822">
+        <v>0</v>
+      </c>
+      <c r="G822">
+        <v>0</v>
+      </c>
+      <c r="H822">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="823" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A823">
         <v>275.5</v>
       </c>
@@ -19104,7 +19138,7 @@
         <v>1.413</v>
       </c>
     </row>
-    <row r="824" spans="1:8">
+    <row r="824" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A824">
         <v>285.39999999999998</v>
       </c>
@@ -19130,7 +19164,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="828" spans="1:8">
+    <row r="828" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>30</v>
       </c>
@@ -19144,7 +19178,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="830" spans="1:8">
+    <row r="830" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>26</v>
       </c>
@@ -19170,7 +19204,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="831" spans="1:8">
+    <row r="831" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>40</v>
       </c>
@@ -19190,7 +19224,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="832" spans="1:8">
+    <row r="832" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A832">
         <v>0</v>
       </c>
@@ -19216,7 +19250,7 @@
         <v>13.811999999999999</v>
       </c>
     </row>
-    <row r="833" spans="1:8">
+    <row r="833" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A833">
         <v>10.8</v>
       </c>
@@ -19242,7 +19276,7 @@
         <v>13.226000000000001</v>
       </c>
     </row>
-    <row r="834" spans="1:8">
+    <row r="834" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A834">
         <v>21.6</v>
       </c>
@@ -19268,7 +19302,7 @@
         <v>13.706</v>
       </c>
     </row>
-    <row r="835" spans="1:8">
+    <row r="835" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A835">
         <v>32.5</v>
       </c>
@@ -19294,7 +19328,7 @@
         <v>13.17</v>
       </c>
     </row>
-    <row r="836" spans="1:8">
+    <row r="836" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A836">
         <v>43.3</v>
       </c>
@@ -19320,7 +19354,7 @@
         <v>13.861000000000001</v>
       </c>
     </row>
-    <row r="837" spans="1:8">
+    <row r="837" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A837">
         <v>54.1</v>
       </c>
@@ -19346,7 +19380,7 @@
         <v>13.157</v>
       </c>
     </row>
-    <row r="838" spans="1:8">
+    <row r="838" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A838">
         <v>64.900000000000006</v>
       </c>
@@ -19372,7 +19406,7 @@
         <v>13.676</v>
       </c>
     </row>
-    <row r="839" spans="1:8">
+    <row r="839" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A839">
         <v>75.7</v>
       </c>
@@ -19398,7 +19432,7 @@
         <v>12.435</v>
       </c>
     </row>
-    <row r="840" spans="1:8">
+    <row r="840" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A840">
         <v>86.6</v>
       </c>
@@ -19424,7 +19458,7 @@
         <v>14.385999999999999</v>
       </c>
     </row>
-    <row r="841" spans="1:8">
+    <row r="841" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A841">
         <v>97.4</v>
       </c>
@@ -19450,7 +19484,7 @@
         <v>13.068</v>
       </c>
     </row>
-    <row r="842" spans="1:8">
+    <row r="842" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A842">
         <v>108.2</v>
       </c>
@@ -19476,7 +19510,7 @@
         <v>14.459</v>
       </c>
     </row>
-    <row r="843" spans="1:8">
+    <row r="843" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A843">
         <v>119</v>
       </c>
@@ -19502,7 +19536,7 @@
         <v>14.268000000000001</v>
       </c>
     </row>
-    <row r="844" spans="1:8">
+    <row r="844" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A844">
         <v>129.80000000000001</v>
       </c>
@@ -19528,7 +19562,7 @@
         <v>15.36</v>
       </c>
     </row>
-    <row r="845" spans="1:8">
+    <row r="845" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A845">
         <v>140.6</v>
       </c>
@@ -19554,7 +19588,7 @@
         <v>14.208</v>
       </c>
     </row>
-    <row r="846" spans="1:8">
+    <row r="846" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A846">
         <v>151.5</v>
       </c>
@@ -19580,7 +19614,7 @@
         <v>14.286</v>
       </c>
     </row>
-    <row r="847" spans="1:8">
+    <row r="847" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A847">
         <v>162.30000000000001</v>
       </c>
@@ -19606,7 +19640,7 @@
         <v>14.643000000000001</v>
       </c>
     </row>
-    <row r="848" spans="1:8">
+    <row r="848" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A848">
         <v>173.1</v>
       </c>
@@ -19632,7 +19666,7 @@
         <v>13.78</v>
       </c>
     </row>
-    <row r="849" spans="1:8">
+    <row r="849" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A849">
         <v>183.9</v>
       </c>
@@ -19658,7 +19692,7 @@
         <v>12.497</v>
       </c>
     </row>
-    <row r="850" spans="1:8">
+    <row r="850" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A850">
         <v>194.7</v>
       </c>
@@ -19684,7 +19718,7 @@
         <v>11.986000000000001</v>
       </c>
     </row>
-    <row r="851" spans="1:8">
+    <row r="851" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A851">
         <v>205.6</v>
       </c>
@@ -19710,7 +19744,7 @@
         <v>10.893000000000001</v>
       </c>
     </row>
-    <row r="852" spans="1:8">
+    <row r="852" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A852">
         <v>216.4</v>
       </c>
@@ -19736,7 +19770,7 @@
         <v>9.7899999999999991</v>
       </c>
     </row>
-    <row r="853" spans="1:8">
+    <row r="853" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A853">
         <v>227.2</v>
       </c>
@@ -19762,7 +19796,7 @@
         <v>8.6989999999999998</v>
       </c>
     </row>
-    <row r="854" spans="1:8">
+    <row r="854" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A854">
         <v>238</v>
       </c>
@@ -19788,63 +19822,59 @@
         <v>7.4109999999999996</v>
       </c>
     </row>
-    <row r="855" spans="1:8">
+    <row r="855" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A855">
         <v>248.8</v>
       </c>
-      <c r="B855" t="s">
-        <v>50</v>
-      </c>
-      <c r="C855" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D855" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E855" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F855" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G855" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="856" spans="1:8">
+      <c r="B855">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="C855">
+        <v>0</v>
+      </c>
+      <c r="D855">
+        <v>0</v>
+      </c>
+      <c r="E855">
+        <v>0</v>
+      </c>
+      <c r="F855">
+        <v>0</v>
+      </c>
+      <c r="G855">
+        <v>0</v>
+      </c>
+      <c r="H855">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="856" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A856">
         <v>259.7</v>
       </c>
-      <c r="B856" t="s">
-        <v>51</v>
-      </c>
-      <c r="C856" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D856" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E856" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F856" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G856" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="857" spans="1:8">
+      <c r="B856">
+        <v>1.21</v>
+      </c>
+      <c r="C856">
+        <v>0</v>
+      </c>
+      <c r="D856">
+        <v>0</v>
+      </c>
+      <c r="E856">
+        <v>0</v>
+      </c>
+      <c r="F856">
+        <v>0</v>
+      </c>
+      <c r="G856">
+        <v>0</v>
+      </c>
+      <c r="H856">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="857" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A857">
         <v>270.5</v>
       </c>
@@ -19870,7 +19900,7 @@
         <v>3.2320000000000002</v>
       </c>
     </row>
-    <row r="858" spans="1:8">
+    <row r="858" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A858">
         <v>281.3</v>
       </c>
@@ -19896,7 +19926,7 @@
         <v>3.2639999999999998</v>
       </c>
     </row>
-    <row r="859" spans="1:8">
+    <row r="859" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A859">
         <v>292.10000000000002</v>
       </c>
@@ -19922,7 +19952,7 @@
         <v>3.4529999999999998</v>
       </c>
     </row>
-    <row r="860" spans="1:8">
+    <row r="860" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A860">
         <v>302.89999999999998</v>
       </c>
@@ -19948,32 +19978,30 @@
         <v>1.8680000000000001</v>
       </c>
     </row>
-    <row r="861" spans="1:8">
+    <row r="861" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A861">
         <v>313.8</v>
       </c>
-      <c r="B861" t="s">
-        <v>52</v>
-      </c>
-      <c r="C861" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D861" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E861" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F861" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G861" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
+      <c r="B861">
+        <v>1.46</v>
+      </c>
+      <c r="C861">
+        <v>0</v>
+      </c>
+      <c r="D861">
+        <v>0</v>
+      </c>
+      <c r="E861">
+        <v>0</v>
+      </c>
+      <c r="F861">
+        <v>0</v>
+      </c>
+      <c r="G861">
+        <v>0</v>
+      </c>
+      <c r="H861">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -19983,24 +20011,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
